--- a/Templates/BluePrint.xlsx
+++ b/Templates/BluePrint.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="6" xr2:uid="{791BE3AC-23BD-49AA-B912-E6D81B31C45D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="7" xr2:uid="{791BE3AC-23BD-49AA-B912-E6D81B31C45D}"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="704">
   <si>
     <t>Id</t>
   </si>
@@ -2023,6 +2023,126 @@
   </si>
   <si>
     <t>TestingRemarks</t>
+  </si>
+  <si>
+    <t>ObsPartnerScreening</t>
+  </si>
+  <si>
+    <t>DTL_FBCUSTOMFIELD_PNSFORM</t>
+  </si>
+  <si>
+    <t>PnsScreeningDate</t>
+  </si>
+  <si>
+    <t>PnsAccepted</t>
+  </si>
+  <si>
+    <t>ScreenedIPV</t>
+  </si>
+  <si>
+    <t>IPVQuestionOne</t>
+  </si>
+  <si>
+    <t>IPVQuestionTwo</t>
+  </si>
+  <si>
+    <t>IPVQuestionThree</t>
+  </si>
+  <si>
+    <t>IPVOutcome</t>
+  </si>
+  <si>
+    <t>PNSOccupation</t>
+  </si>
+  <si>
+    <t>PNSRealtionship</t>
+  </si>
+  <si>
+    <t>PNSCurrentlyLivingWithClient</t>
+  </si>
+  <si>
+    <t>PNSKnowledgeHIVStatus</t>
+  </si>
+  <si>
+    <t>PNSApproach</t>
+  </si>
+  <si>
+    <t>ScreeningDate</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>PhysicalAssult</t>
+  </si>
+  <si>
+    <t>Threatened</t>
+  </si>
+  <si>
+    <t>SexuallyUncomfortable</t>
+  </si>
+  <si>
+    <t>LivingWithClient</t>
+  </si>
+  <si>
+    <t>284cded0-0033-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>284ce132-0033-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>284ce4de-0033-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>284ce614-0033-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>284ce736-0033-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>284ce844-0033-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>284ce9c0-0033-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>284cec18-0033-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>284cefba-0033-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>284cf154-0033-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>284cf294-0033-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>284cf3b6-0033-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>a7d757d4-0033-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>a7d75a2c-0033-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>a7d75bee-0033-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>DTL_CUSTOMFORM_Contact Tracing and Outcomes_PNSTRACING</t>
+  </si>
+  <si>
+    <t>FT_Outcome</t>
+  </si>
+  <si>
+    <t>PNSMode</t>
+  </si>
+  <si>
+    <t>PNSConsent</t>
+  </si>
+  <si>
+    <t>2d5e1b6e-0038-11e8-ba89-0ed5f89f718b</t>
   </si>
 </sst>
 </file>
@@ -2177,14 +2297,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{87B17825-EC5C-4480-A566-6C034FCA05E3}" name="Table7" displayName="Table7" ref="A1:L40" totalsRowShown="0">
-  <autoFilter ref="A1:L40" xr:uid="{ACC6EB24-3A38-4B9D-B8B7-15B6862DD7D1}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="ObsFinalTestResult"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{87B17825-EC5C-4480-A566-6C034FCA05E3}" name="Table7" displayName="Table7" ref="A1:L52" totalsRowShown="0">
+  <autoFilter ref="A1:L52" xr:uid="{ACC6EB24-3A38-4B9D-B8B7-15B6862DD7D1}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{80C1A31B-4904-4DB0-94C4-0F3EB40A50F0}" name="Id"/>
     <tableColumn id="2" xr3:uid="{F54E4B7D-BE1A-4050-A714-DE4A799489AB}" name="Name"/>
@@ -2205,16 +2319,7 @@
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4E2AF602-AE1F-4015-8958-05DB5133E6C2}" name="Table8" displayName="Table8" ref="A1:J104" totalsRowShown="0">
-  <autoFilter ref="A1:J104" xr:uid="{C5189CF3-53F2-4CB5-A93F-FFF07CD5A6AE}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="ObsTestResult.Kit"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A2:J104">
-    <sortCondition ref="B1:B104"/>
-  </sortState>
+  <autoFilter ref="A1:J104" xr:uid="{C5189CF3-53F2-4CB5-A93F-FFF07CD5A6AE}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{9227F7C8-EE45-4CC9-B674-EE1A0F122C45}" name="Id"/>
     <tableColumn id="2" xr3:uid="{F792CF62-959A-4B86-98EF-A6FB625A5EED}" name="Ref"/>
@@ -5926,19 +6031,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42808880-C2B9-4DC7-82E0-A8AF856DED1E}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
@@ -5986,7 +6091,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>334</v>
       </c>
@@ -6018,7 +6123,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>340</v>
       </c>
@@ -6050,7 +6155,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>344</v>
       </c>
@@ -6082,7 +6187,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>347</v>
       </c>
@@ -6114,7 +6219,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>350</v>
       </c>
@@ -6146,7 +6251,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -6178,7 +6283,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>356</v>
       </c>
@@ -6210,7 +6315,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>359</v>
       </c>
@@ -6242,7 +6347,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>360</v>
       </c>
@@ -6280,7 +6385,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>364</v>
       </c>
@@ -6318,7 +6423,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>366</v>
       </c>
@@ -6356,7 +6461,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>369</v>
       </c>
@@ -6394,7 +6499,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>374</v>
       </c>
@@ -6432,7 +6537,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>377</v>
       </c>
@@ -6470,7 +6575,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>380</v>
       </c>
@@ -6508,7 +6613,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>383</v>
       </c>
@@ -6546,7 +6651,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>386</v>
       </c>
@@ -6584,7 +6689,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>388</v>
       </c>
@@ -6622,7 +6727,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>390</v>
       </c>
@@ -6660,7 +6765,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>392</v>
       </c>
@@ -6689,7 +6794,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>398</v>
       </c>
@@ -6718,7 +6823,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>401</v>
       </c>
@@ -6747,7 +6852,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>403</v>
       </c>
@@ -6776,7 +6881,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>406</v>
       </c>
@@ -6805,7 +6910,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>409</v>
       </c>
@@ -6834,7 +6939,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>412</v>
       </c>
@@ -6863,7 +6968,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>415</v>
       </c>
@@ -6892,7 +6997,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>418</v>
       </c>
@@ -6921,7 +7026,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>421</v>
       </c>
@@ -7110,7 +7215,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>438</v>
       </c>
@@ -7142,7 +7247,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>441</v>
       </c>
@@ -7174,7 +7279,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>390</v>
       </c>
@@ -7212,7 +7317,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>390</v>
       </c>
@@ -7282,10 +7387,619 @@
         <v>339</v>
       </c>
     </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>684</v>
+      </c>
+      <c r="B41" t="s">
+        <v>664</v>
+      </c>
+      <c r="C41" t="s">
+        <v>678</v>
+      </c>
+      <c r="D41" t="s">
+        <v>342</v>
+      </c>
+      <c r="E41" t="s">
+        <v>665</v>
+      </c>
+      <c r="F41" t="s">
+        <v>666</v>
+      </c>
+      <c r="G41" t="s">
+        <v>342</v>
+      </c>
+      <c r="H41">
+        <v>7</v>
+      </c>
+      <c r="I41" t="s">
+        <v>260</v>
+      </c>
+      <c r="J41">
+        <v>76</v>
+      </c>
+      <c r="K41">
+        <v>1016</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>685</v>
+      </c>
+      <c r="B42" t="s">
+        <v>664</v>
+      </c>
+      <c r="C42" t="s">
+        <v>667</v>
+      </c>
+      <c r="D42" t="s">
+        <v>277</v>
+      </c>
+      <c r="E42" t="s">
+        <v>665</v>
+      </c>
+      <c r="F42" t="s">
+        <v>667</v>
+      </c>
+      <c r="G42" t="s">
+        <v>260</v>
+      </c>
+      <c r="H42">
+        <v>7</v>
+      </c>
+      <c r="I42" t="s">
+        <v>260</v>
+      </c>
+      <c r="J42">
+        <v>76</v>
+      </c>
+      <c r="K42">
+        <v>1016</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>686</v>
+      </c>
+      <c r="B43" t="s">
+        <v>664</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" t="s">
+        <v>277</v>
+      </c>
+      <c r="E43" t="s">
+        <v>665</v>
+      </c>
+      <c r="F43" t="s">
+        <v>668</v>
+      </c>
+      <c r="G43" t="s">
+        <v>260</v>
+      </c>
+      <c r="H43">
+        <v>7</v>
+      </c>
+      <c r="I43" t="s">
+        <v>260</v>
+      </c>
+      <c r="J43">
+        <v>76</v>
+      </c>
+      <c r="K43">
+        <v>1016</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>687</v>
+      </c>
+      <c r="B44" t="s">
+        <v>664</v>
+      </c>
+      <c r="C44" t="s">
+        <v>680</v>
+      </c>
+      <c r="D44" t="s">
+        <v>277</v>
+      </c>
+      <c r="E44" t="s">
+        <v>665</v>
+      </c>
+      <c r="F44" t="s">
+        <v>669</v>
+      </c>
+      <c r="G44" t="s">
+        <v>260</v>
+      </c>
+      <c r="H44">
+        <v>7</v>
+      </c>
+      <c r="I44" t="s">
+        <v>260</v>
+      </c>
+      <c r="J44">
+        <v>76</v>
+      </c>
+      <c r="K44">
+        <v>1016</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>688</v>
+      </c>
+      <c r="B45" t="s">
+        <v>664</v>
+      </c>
+      <c r="C45" t="s">
+        <v>681</v>
+      </c>
+      <c r="D45" t="s">
+        <v>277</v>
+      </c>
+      <c r="E45" t="s">
+        <v>665</v>
+      </c>
+      <c r="F45" t="s">
+        <v>670</v>
+      </c>
+      <c r="G45" t="s">
+        <v>260</v>
+      </c>
+      <c r="H45">
+        <v>7</v>
+      </c>
+      <c r="I45" t="s">
+        <v>260</v>
+      </c>
+      <c r="J45">
+        <v>76</v>
+      </c>
+      <c r="K45">
+        <v>1016</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>689</v>
+      </c>
+      <c r="B46" t="s">
+        <v>664</v>
+      </c>
+      <c r="C46" t="s">
+        <v>682</v>
+      </c>
+      <c r="D46" t="s">
+        <v>277</v>
+      </c>
+      <c r="E46" t="s">
+        <v>665</v>
+      </c>
+      <c r="F46" t="s">
+        <v>671</v>
+      </c>
+      <c r="G46" t="s">
+        <v>260</v>
+      </c>
+      <c r="H46">
+        <v>7</v>
+      </c>
+      <c r="I46" t="s">
+        <v>260</v>
+      </c>
+      <c r="J46">
+        <v>76</v>
+      </c>
+      <c r="K46">
+        <v>1016</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>690</v>
+      </c>
+      <c r="B47" t="s">
+        <v>664</v>
+      </c>
+      <c r="C47" t="s">
+        <v>672</v>
+      </c>
+      <c r="D47" t="s">
+        <v>277</v>
+      </c>
+      <c r="E47" t="s">
+        <v>665</v>
+      </c>
+      <c r="F47" t="s">
+        <v>672</v>
+      </c>
+      <c r="G47" t="s">
+        <v>260</v>
+      </c>
+      <c r="H47">
+        <v>7</v>
+      </c>
+      <c r="I47" t="s">
+        <v>260</v>
+      </c>
+      <c r="J47">
+        <v>76</v>
+      </c>
+      <c r="K47">
+        <v>1016</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>691</v>
+      </c>
+      <c r="B48" t="s">
+        <v>664</v>
+      </c>
+      <c r="C48" t="s">
+        <v>679</v>
+      </c>
+      <c r="D48" t="s">
+        <v>277</v>
+      </c>
+      <c r="E48" t="s">
+        <v>665</v>
+      </c>
+      <c r="F48" t="s">
+        <v>673</v>
+      </c>
+      <c r="G48" t="s">
+        <v>277</v>
+      </c>
+      <c r="H48">
+        <v>7</v>
+      </c>
+      <c r="I48" t="s">
+        <v>260</v>
+      </c>
+      <c r="J48">
+        <v>77</v>
+      </c>
+      <c r="K48">
+        <v>1016</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>692</v>
+      </c>
+      <c r="B49" t="s">
+        <v>664</v>
+      </c>
+      <c r="C49" t="s">
+        <v>674</v>
+      </c>
+      <c r="D49" t="s">
+        <v>277</v>
+      </c>
+      <c r="E49" t="s">
+        <v>665</v>
+      </c>
+      <c r="F49" t="s">
+        <v>674</v>
+      </c>
+      <c r="G49" t="s">
+        <v>260</v>
+      </c>
+      <c r="H49">
+        <v>7</v>
+      </c>
+      <c r="I49" t="s">
+        <v>260</v>
+      </c>
+      <c r="J49">
+        <v>77</v>
+      </c>
+      <c r="K49">
+        <v>1016</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>693</v>
+      </c>
+      <c r="B50" t="s">
+        <v>664</v>
+      </c>
+      <c r="C50" t="s">
+        <v>683</v>
+      </c>
+      <c r="D50" t="s">
+        <v>277</v>
+      </c>
+      <c r="E50" t="s">
+        <v>665</v>
+      </c>
+      <c r="F50" t="s">
+        <v>675</v>
+      </c>
+      <c r="G50" t="s">
+        <v>260</v>
+      </c>
+      <c r="H50">
+        <v>7</v>
+      </c>
+      <c r="I50" t="s">
+        <v>260</v>
+      </c>
+      <c r="J50">
+        <v>77</v>
+      </c>
+      <c r="K50">
+        <v>1016</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>694</v>
+      </c>
+      <c r="B51" t="s">
+        <v>664</v>
+      </c>
+      <c r="C51" t="s">
+        <v>635</v>
+      </c>
+      <c r="D51" t="s">
+        <v>277</v>
+      </c>
+      <c r="E51" t="s">
+        <v>665</v>
+      </c>
+      <c r="F51" t="s">
+        <v>676</v>
+      </c>
+      <c r="G51" t="s">
+        <v>260</v>
+      </c>
+      <c r="H51">
+        <v>7</v>
+      </c>
+      <c r="I51" t="s">
+        <v>260</v>
+      </c>
+      <c r="J51">
+        <v>77</v>
+      </c>
+      <c r="K51">
+        <v>1016</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>695</v>
+      </c>
+      <c r="B52" t="s">
+        <v>664</v>
+      </c>
+      <c r="C52" t="s">
+        <v>677</v>
+      </c>
+      <c r="D52" t="s">
+        <v>277</v>
+      </c>
+      <c r="E52" t="s">
+        <v>665</v>
+      </c>
+      <c r="F52" t="s">
+        <v>677</v>
+      </c>
+      <c r="G52" t="s">
+        <v>260</v>
+      </c>
+      <c r="H52">
+        <v>7</v>
+      </c>
+      <c r="I52" t="s">
+        <v>260</v>
+      </c>
+      <c r="J52">
+        <v>77</v>
+      </c>
+      <c r="K52">
+        <v>1016</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>696</v>
+      </c>
+      <c r="B53" t="s">
+        <v>361</v>
+      </c>
+      <c r="C53" t="s">
+        <v>331</v>
+      </c>
+      <c r="D53" t="s">
+        <v>277</v>
+      </c>
+      <c r="E53" t="s">
+        <v>699</v>
+      </c>
+      <c r="F53" t="s">
+        <v>701</v>
+      </c>
+      <c r="G53" t="s">
+        <v>277</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53" t="s">
+        <v>265</v>
+      </c>
+      <c r="J53">
+        <v>72</v>
+      </c>
+      <c r="K53">
+        <v>1013</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>697</v>
+      </c>
+      <c r="B54" t="s">
+        <v>361</v>
+      </c>
+      <c r="C54" t="s">
+        <v>342</v>
+      </c>
+      <c r="D54" t="s">
+        <v>342</v>
+      </c>
+      <c r="E54" t="s">
+        <v>699</v>
+      </c>
+      <c r="F54" t="s">
+        <v>365</v>
+      </c>
+      <c r="G54" t="s">
+        <v>342</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54" t="s">
+        <v>265</v>
+      </c>
+      <c r="J54">
+        <v>72</v>
+      </c>
+      <c r="K54">
+        <v>1013</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>698</v>
+      </c>
+      <c r="B55" t="s">
+        <v>361</v>
+      </c>
+      <c r="C55" t="s">
+        <v>367</v>
+      </c>
+      <c r="D55" t="s">
+        <v>277</v>
+      </c>
+      <c r="E55" t="s">
+        <v>699</v>
+      </c>
+      <c r="F55" t="s">
+        <v>700</v>
+      </c>
+      <c r="G55" t="s">
+        <v>277</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55" t="s">
+        <v>265</v>
+      </c>
+      <c r="J55">
+        <v>72</v>
+      </c>
+      <c r="K55">
+        <v>1013</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>703</v>
+      </c>
+      <c r="B56" t="s">
+        <v>361</v>
+      </c>
+      <c r="C56" t="s">
+        <v>267</v>
+      </c>
+      <c r="D56" t="s">
+        <v>277</v>
+      </c>
+      <c r="E56" t="s">
+        <v>699</v>
+      </c>
+      <c r="F56" t="s">
+        <v>702</v>
+      </c>
+      <c r="G56" t="s">
+        <v>277</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56" t="s">
+        <v>265</v>
+      </c>
+      <c r="J56">
+        <v>72</v>
+      </c>
+      <c r="K56">
+        <v>1013</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7294,7 +8008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9EDC7D2-F164-4AF1-BE00-B6B43F85EA47}">
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
       <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
@@ -7344,7 +8058,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>500</v>
       </c>
@@ -7376,7 +8090,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>502</v>
       </c>
@@ -7408,7 +8122,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>592</v>
       </c>
@@ -7440,7 +8154,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>593</v>
       </c>
@@ -7472,7 +8186,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>554</v>
       </c>
@@ -7504,7 +8218,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>556</v>
       </c>
@@ -7536,7 +8250,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>558</v>
       </c>
@@ -7568,7 +8282,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>560</v>
       </c>
@@ -7600,7 +8314,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>562</v>
       </c>
@@ -7632,7 +8346,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>564</v>
       </c>
@@ -7664,7 +8378,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>566</v>
       </c>
@@ -7696,7 +8410,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>568</v>
       </c>
@@ -7728,7 +8442,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>570</v>
       </c>
@@ -7760,7 +8474,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>572</v>
       </c>
@@ -7792,7 +8506,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>574</v>
       </c>
@@ -7824,7 +8538,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>576</v>
       </c>
@@ -7856,7 +8570,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>578</v>
       </c>
@@ -7888,7 +8602,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>580</v>
       </c>
@@ -7920,7 +8634,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>582</v>
       </c>
@@ -7952,7 +8666,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>584</v>
       </c>
@@ -7984,7 +8698,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>586</v>
       </c>
@@ -8016,7 +8730,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>588</v>
       </c>
@@ -8048,7 +8762,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>590</v>
       </c>
@@ -8080,7 +8794,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>518</v>
       </c>
@@ -8112,7 +8826,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>521</v>
       </c>
@@ -8144,7 +8858,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>524</v>
       </c>
@@ -8176,7 +8890,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>527</v>
       </c>
@@ -8208,7 +8922,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>530</v>
       </c>
@@ -8240,7 +8954,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>533</v>
       </c>
@@ -8272,7 +8986,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>504</v>
       </c>
@@ -8304,7 +9018,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>505</v>
       </c>
@@ -8336,7 +9050,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>536</v>
       </c>
@@ -8368,7 +9082,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>539</v>
       </c>
@@ -8400,7 +9114,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>506</v>
       </c>
@@ -8432,7 +9146,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>508</v>
       </c>
@@ -8464,7 +9178,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>510</v>
       </c>
@@ -8496,7 +9210,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>512</v>
       </c>
@@ -8528,7 +9242,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>514</v>
       </c>
@@ -8560,7 +9274,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>516</v>
       </c>
@@ -8592,7 +9306,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>542</v>
       </c>
@@ -8624,7 +9338,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>545</v>
       </c>
@@ -8656,7 +9370,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>548</v>
       </c>
@@ -8688,7 +9402,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>551</v>
       </c>
@@ -8720,7 +9434,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>614</v>
       </c>
@@ -8752,7 +9466,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>619</v>
       </c>
@@ -8784,7 +9498,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>622</v>
       </c>
@@ -8816,7 +9530,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>624</v>
       </c>
@@ -8848,7 +9562,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>628</v>
       </c>
@@ -8880,7 +9594,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>638</v>
       </c>
@@ -8906,7 +9620,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>634</v>
       </c>
@@ -8938,7 +9652,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>636</v>
       </c>
@@ -8970,7 +9684,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>637</v>
       </c>
@@ -8996,7 +9710,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>452</v>
       </c>
@@ -9025,7 +9739,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>455</v>
       </c>
@@ -9054,7 +9768,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>459</v>
       </c>
@@ -9083,7 +9797,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>462</v>
       </c>
@@ -9112,7 +9826,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>464</v>
       </c>
@@ -9141,7 +9855,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>467</v>
       </c>
@@ -9170,7 +9884,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>470</v>
       </c>
@@ -9199,7 +9913,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>471</v>
       </c>
@@ -9228,7 +9942,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>610</v>
       </c>
@@ -9260,7 +9974,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>612</v>
       </c>
@@ -9292,7 +10006,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>613</v>
       </c>
@@ -9324,7 +10038,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>602</v>
       </c>
@@ -9356,7 +10070,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>604</v>
       </c>
@@ -9388,7 +10102,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>605</v>
       </c>
@@ -9420,7 +10134,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>594</v>
       </c>
@@ -9452,7 +10166,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>596</v>
       </c>
@@ -9484,7 +10198,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>597</v>
       </c>
@@ -9516,7 +10230,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>607</v>
       </c>
@@ -9548,7 +10262,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>609</v>
       </c>
@@ -9580,7 +10294,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>598</v>
       </c>
@@ -9612,7 +10326,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>600</v>
       </c>
@@ -9644,7 +10358,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>601</v>
       </c>
@@ -9868,7 +10582,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>490</v>
       </c>
@@ -9900,7 +10614,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>493</v>
       </c>
@@ -9932,7 +10646,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>494</v>
       </c>
@@ -9964,7 +10678,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>496</v>
       </c>
@@ -9996,7 +10710,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>497</v>
       </c>
@@ -10028,7 +10742,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>499</v>
       </c>
@@ -10060,7 +10774,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>477</v>
       </c>
@@ -10092,7 +10806,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>479</v>
       </c>
@@ -10124,7 +10838,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>473</v>
       </c>
@@ -10156,7 +10870,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>475</v>
       </c>
@@ -10188,7 +10902,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>476</v>
       </c>
@@ -10220,7 +10934,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>629</v>
       </c>
@@ -10252,7 +10966,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>633</v>
       </c>
@@ -10278,7 +10992,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>640</v>
       </c>
@@ -10310,7 +11024,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>643</v>
       </c>
@@ -10342,7 +11056,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>645</v>
       </c>
@@ -10374,7 +11088,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>648</v>
       </c>
@@ -10406,7 +11120,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>650</v>
       </c>
@@ -10438,7 +11152,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>652</v>
       </c>
@@ -10470,7 +11184,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>654</v>
       </c>
@@ -10502,7 +11216,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>657</v>
       </c>
@@ -10534,7 +11248,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>448</v>
       </c>
@@ -10563,7 +11277,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>450</v>
       </c>

--- a/Templates/BluePrint.xlsx
+++ b/Templates/BluePrint.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="7" xr2:uid="{791BE3AC-23BD-49AA-B912-E6D81B31C45D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="8" xr2:uid="{791BE3AC-23BD-49AA-B912-E6D81B31C45D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Category" sheetId="1" r:id="rId1"/>
-    <sheet name="Item" sheetId="2" r:id="rId2"/>
-    <sheet name="CategoryItem" sheetId="3" r:id="rId3"/>
-    <sheet name="Concept" sheetId="5" r:id="rId4"/>
-    <sheet name="Question" sheetId="4" r:id="rId5"/>
-    <sheet name="SubscriberConfig" sheetId="6" r:id="rId6"/>
-    <sheet name="SubscriberMap" sheetId="7" r:id="rId7"/>
-    <sheet name="SubscriberTranslation" sheetId="8" r:id="rId8"/>
+    <sheet name="Chart1" sheetId="9" r:id="rId1"/>
+    <sheet name="Category" sheetId="1" r:id="rId2"/>
+    <sheet name="Item" sheetId="2" r:id="rId3"/>
+    <sheet name="CategoryItem" sheetId="3" r:id="rId4"/>
+    <sheet name="Concept" sheetId="5" r:id="rId5"/>
+    <sheet name="Question" sheetId="4" r:id="rId6"/>
+    <sheet name="SubscriberConfig" sheetId="6" r:id="rId7"/>
+    <sheet name="SubscriberMap" sheetId="7" r:id="rId8"/>
+    <sheet name="SubscriberTranslation" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="868">
   <si>
     <t>Id</t>
   </si>
@@ -2143,13 +2144,505 @@
   </si>
   <si>
     <t>2d5e1b6e-0038-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>ObsPartnerScreening.PnsAccepted</t>
+  </si>
+  <si>
+    <t>ObsPartnerScreening.PhysicalAssult</t>
+  </si>
+  <si>
+    <t>ObsPartnerScreening.Threatened</t>
+  </si>
+  <si>
+    <t>ObsPartnerScreening.SexuallyUncomfortable</t>
+  </si>
+  <si>
+    <t>d18a3ef4-004f-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>d18a416a-004f-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>d18a42be-004f-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>d18a43e0-004f-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>d18a450c-004f-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>d18a462e-004f-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>d18a4746-004f-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>d18a4ade-004f-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>ObsPartnerScreening.IPVScreening</t>
+  </si>
+  <si>
+    <t>ObsPartnerScreening.IPVOutcome</t>
+  </si>
+  <si>
+    <t>Emotional</t>
+  </si>
+  <si>
+    <t>Sexual</t>
+  </si>
+  <si>
+    <t>No IPV</t>
+  </si>
+  <si>
+    <t>NA-CHILD</t>
+  </si>
+  <si>
+    <t>ObsPartnerScreening.PNSRealtionship</t>
+  </si>
+  <si>
+    <t>Sexual Partner(SP)</t>
+  </si>
+  <si>
+    <t>Injectable Drug User (IDU)</t>
+  </si>
+  <si>
+    <t>Child - C</t>
+  </si>
+  <si>
+    <t>ObsPartnerScreening.HivStatus</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>Neg</t>
+  </si>
+  <si>
+    <t>ObsPartnerScreening.PNSApproach</t>
+  </si>
+  <si>
+    <t>Con:Contract Referral</t>
+  </si>
+  <si>
+    <t>D:Dual Referral</t>
+  </si>
+  <si>
+    <t>Cr:Passive Referral</t>
+  </si>
+  <si>
+    <t>Pr: Provider Referral</t>
+  </si>
+  <si>
+    <t>9c213e00-0051-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>9c213f72-0051-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>9c214120-0051-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>9c2145bc-0051-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>9c214832-0051-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>9c214a9e-0051-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>9c215016-0051-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>9c2151f6-0051-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>9c21546c-0051-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>9c215584-0051-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>9c2156a6-0051-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>9c2157be-0051-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>9c215b7e-0051-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>9c215dfe-0051-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>9c2160ec-0051-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>9c21634e-0051-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>b25fa291-852f-11e7-bb31-be3e73b06b34</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>a577c40a-0052-11e8-aa69-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>a577c694-0052-11e8-aa69-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>a577c7de-0052-11e8-aa69-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>a577c914-0052-11e8-aa69-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>a577cda6-0052-11e8-aa69-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>fe022534-0052-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>fe02278c-0052-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>fe0228c2-0052-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>fe022d18-0052-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>fe022f2a-0052-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>749076e2-0053-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>74907a98-0053-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>74907dae-0053-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>749080ce-0053-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>7490840c-0053-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>749094ba-0053-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>c2293984-0053-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>c2293d62-0053-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>c2293f60-0053-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>c22940b4-0053-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>c22941f4-0053-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>c2294a78-0053-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>c22946ae-0053-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>Declined</t>
+  </si>
+  <si>
+    <t>825566c4-0054-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>8255696c-0054-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>82556aac-0054-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>8255784e-0054-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>B25F859A-852F-11E7-BB31-BE2E44B06B34</t>
+  </si>
+  <si>
+    <t>82557164-0054-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>8255739e-0054-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>82557600-0054-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>cdeae1da-0055-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>cdeae874-0055-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>cdeaea04-0055-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>cdeaeb4e-0055-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>Con</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>Pr</t>
+  </si>
+  <si>
+    <t>cdeaec70-0055-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>cdeaed92-0055-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>cdeaef90-0055-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>cdeaf184-0055-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>5d32d834-0056-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>5d32dc80-0056-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>5d32dee2-0056-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>5d32e130-0056-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>5d32e36a-0056-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>5d32e5ae-0056-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>5d32ebbc-0056-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>5d32ee46-0056-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>a374c004-0057-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>a374c69e-0057-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>a374caf4-0057-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>a374cd88-0057-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>a374cf9a-0057-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>a374d1a2-0057-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>a374d3aa-0057-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>a374d85a-0057-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>Contcated</t>
+  </si>
+  <si>
+    <t>ObsPartnerTraceResult.Outcome</t>
+  </si>
+  <si>
+    <t>ObsPartnerTraceResult.Mode</t>
+  </si>
+  <si>
+    <t>PNSOutcome</t>
+  </si>
+  <si>
+    <t>8206729a-0058-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>820673c6-0058-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>820674e8-0058-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>8206760a-0058-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>8206772c-0058-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>82067a88-0058-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>dad3910a-0058-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>dad39498-0058-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>dad396dc-0058-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>dad398da-0058-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>dad39aa6-0058-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>dad39cae-0058-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>dad3a26c-0058-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>dad3a49c-0058-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>DTL_CUSTOMFORM_Family Testing Form_FamilyTestingForm</t>
+  </si>
+  <si>
+    <t>FT_HIVStatus</t>
+  </si>
+  <si>
+    <t>FM_TestingEligibility</t>
+  </si>
+  <si>
+    <t>FT_DateContacted</t>
+  </si>
+  <si>
+    <t>ObsMemberScreening</t>
+  </si>
+  <si>
+    <t>BookingDate</t>
+  </si>
+  <si>
+    <t>c609df38-005b-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>c609e1f4-005b-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>c609e366-005b-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>c609e492-005b-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>c609e5be-005b-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>c609e6e0-005b-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>c609eb5e-005b-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>c609ed16-005b-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>ObsMemberScreening.Eligibility</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>6169a01c-005c-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>6169a544-005c-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>FamilyHIVStatus</t>
+  </si>
+  <si>
+    <t>6169a6ac-005c-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>6169a7d8-005c-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>6169a8fa-005c-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>6169aaee-005c-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>6169ac24-005c-11e8-ba89-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>ObsMemberScreening.HivStatus</t>
+  </si>
+  <si>
+    <t>ObsFamilyTraceResult</t>
+  </si>
+  <si>
+    <t>DTL_CUSTOMFORM_Family Member Tracing Form_FamilyTracingForm</t>
+  </si>
+  <si>
+    <t>FT_TracingType</t>
+  </si>
+  <si>
+    <t>FT_DateIndexClientReminded</t>
+  </si>
+  <si>
+    <t>FT_ConsentedTesting</t>
+  </si>
+  <si>
+    <t>Reminder</t>
+  </si>
+  <si>
+    <t>ObsFamilyTraceResult.Outcome</t>
+  </si>
+  <si>
+    <t>ObsFamilyTraceResult.Mode</t>
+  </si>
+  <si>
+    <t>3618c098-005f-11e8-aa69-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>3618c1b0-005f-11e8-aa69-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>3618c304-005f-11e8-aa69-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>3618c426-005f-11e8-aa69-0ed5f89f718b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2157,16 +2650,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2174,21 +2693,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
@@ -2208,9 +2746,1183 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Category!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Id</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Category!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DE1-429B-953E-49C44FECE867}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Category!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Code</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Category!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5DE1-429B-953E-49C44FECE867}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Category!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Voided</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Category!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5DE1-429B-953E-49C44FECE867}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="472839528"/>
+        <c:axId val="643328080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="472839528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643328080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="643328080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472839528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D46E7E54-AF10-4E24-A892-66D761A0D960}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="171" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8661623" cy="6288728"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6469977B-1F97-4DB5-B955-83E61BE8478C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9A13F67-BEB1-4373-B02D-6D3161A30B41}" name="Table1" displayName="Table1" ref="A1:C19" totalsRowShown="0">
-  <autoFilter ref="A1:C19" xr:uid="{3735A616-9763-4FC0-9AD3-8C8434FD1194}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9A13F67-BEB1-4373-B02D-6D3161A30B41}" name="Table1" displayName="Table1" ref="A1:C27" totalsRowShown="0">
+  <autoFilter ref="A1:C27" xr:uid="{3735A616-9763-4FC0-9AD3-8C8434FD1194}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{032DDC6F-E5AD-400D-8A5F-74DFD5A34729}" name="Id"/>
     <tableColumn id="2" xr3:uid="{7C0B08A6-DE83-4A6A-ADCB-7A459945EAA4}" name="Code"/>
@@ -2221,8 +3933,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5D8EE13F-B1D8-48E0-83A0-F50E9653D5E3}" name="Table2" displayName="Table2" ref="A1:D57" totalsRowShown="0">
-  <autoFilter ref="A1:D57" xr:uid="{2EC42510-4B29-46DF-9D1D-30E4299D52A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5D8EE13F-B1D8-48E0-83A0-F50E9653D5E3}" name="Table2" displayName="Table2" ref="A1:D73" totalsRowShown="0">
+  <autoFilter ref="A1:D73" xr:uid="{2EC42510-4B29-46DF-9D1D-30E4299D52A9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3712F466-79EC-4171-AADC-9A7D8C5F8D8E}" name="Id"/>
     <tableColumn id="2" xr3:uid="{029BAE3B-13AA-461B-8141-58A3AD78BDBF}" name="Code"/>
@@ -2234,10 +3946,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEDBDBB1-696E-4C9B-97AB-DE7134839E13}" name="Table3" displayName="Table3" ref="A1:F73" totalsRowShown="0">
-  <autoFilter ref="A1:F73" xr:uid="{84FEA0B4-A9BF-4B69-85A4-909D8E0F0399}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEDBDBB1-696E-4C9B-97AB-DE7134839E13}" name="Table3" displayName="Table3" ref="A1:F103" totalsRowShown="0">
+  <autoFilter ref="A1:F103" xr:uid="{84FEA0B4-A9BF-4B69-85A4-909D8E0F0399}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{71454204-02BD-42C9-A4B0-95CEF3908533}" name="Id" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{71454204-02BD-42C9-A4B0-95CEF3908533}" name="Id" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{7343898D-6013-46B5-9B44-FCBD544124B4}" name="CategoryId"/>
     <tableColumn id="3" xr3:uid="{8641924C-BEF2-422E-AC00-93E3172238DA}" name="ItemId"/>
     <tableColumn id="4" xr3:uid="{E28D8243-75A8-4C3B-93A1-B3625A1BBDDF}" name="Display"/>
@@ -2318,19 +4030,19 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4E2AF602-AE1F-4015-8958-05DB5133E6C2}" name="Table8" displayName="Table8" ref="A1:J104" totalsRowShown="0">
-  <autoFilter ref="A1:J104" xr:uid="{C5189CF3-53F2-4CB5-A93F-FFF07CD5A6AE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A0E0B7B2-60E0-4321-9F99-B5CC3BA9D435}" name="Table8" displayName="Table8" ref="A1:J164" totalsRowShown="0">
+  <autoFilter ref="A1:J164" xr:uid="{7CED72B2-1C8A-4293-A47D-A3D1B4C414DF}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{9227F7C8-EE45-4CC9-B674-EE1A0F122C45}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{F792CF62-959A-4B86-98EF-A6FB625A5EED}" name="Ref"/>
-    <tableColumn id="3" xr3:uid="{539B8D3F-24DB-4C2B-83A6-5AA80CDF4EC2}" name="Code"/>
-    <tableColumn id="4" xr3:uid="{69E6BC73-041D-4C93-A171-349FB7900D68}" name="Display"/>
-    <tableColumn id="5" xr3:uid="{333FFC15-9622-4998-993C-686447598062}" name="SubCode"/>
-    <tableColumn id="6" xr3:uid="{CCFAF50E-3F1B-4F29-8ADF-5395E7B70B17}" name="SubDisplay"/>
-    <tableColumn id="7" xr3:uid="{FADD3717-9D32-4668-9A73-30CC827A48F0}" name="SubRef"/>
-    <tableColumn id="8" xr3:uid="{5C5DFCF3-A5CB-4B2F-9930-0D37C4570384}" name="IsText"/>
-    <tableColumn id="9" xr3:uid="{F20D6F1D-FB5E-4DD9-A885-CD92853960DA}" name="Group"/>
-    <tableColumn id="10" xr3:uid="{A83F069B-3605-481A-9E34-471C75715076}" name="SubscriberSystemId" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4EE1E66C-C80B-4D15-BE74-D2E68C9AAE00}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{049FA3B1-1684-4470-969F-50EEAE61C171}" name="Ref"/>
+    <tableColumn id="3" xr3:uid="{5C823274-1110-4892-AB51-D217857CEA5D}" name="Code"/>
+    <tableColumn id="4" xr3:uid="{D39F4959-725A-4291-B5A1-869F83FC9A6C}" name="Display"/>
+    <tableColumn id="5" xr3:uid="{0CE3EE66-AEEA-416D-A6A5-64D9776ABABA}" name="SubCode"/>
+    <tableColumn id="6" xr3:uid="{399E1B36-88AD-45BD-9CCA-B5C827AD7E57}" name="SubDisplay"/>
+    <tableColumn id="7" xr3:uid="{A72AD61E-7B9E-4A26-A106-1C67D89535C4}" name="SubRef"/>
+    <tableColumn id="8" xr3:uid="{C116B063-1841-4F80-A58A-9B19224F924B}" name="IsText"/>
+    <tableColumn id="9" xr3:uid="{F0CBDBAF-6185-4A46-B95A-1AE8B55C65DB}" name="Group"/>
+    <tableColumn id="10" xr3:uid="{EC8BE251-88CF-456A-8825-83DDC494005C}" name="SubscriberSystemId"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2633,16 +4345,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032C423A-D037-4A10-B8B3-00EEFB9C702D}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2852,6 +4564,81 @@
         <v>38</v>
       </c>
       <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>750</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>768</v>
+      </c>
+      <c r="B21" t="s">
+        <v>674</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>774</v>
+      </c>
+      <c r="B22" t="s">
+        <v>675</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>780</v>
+      </c>
+      <c r="B23" t="s">
+        <v>676</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>788</v>
+      </c>
+      <c r="B24" t="s">
+        <v>677</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>811</v>
+      </c>
+      <c r="B25" t="s">
+        <v>815</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>850</v>
+      </c>
+      <c r="B26" t="s">
+        <v>849</v>
+      </c>
+      <c r="C26">
         <v>0</v>
       </c>
     </row>
@@ -2865,10 +4652,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653D79A3-EC80-4356-84E3-20C62774D17E}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3676,6 +5463,222 @@
         <v>0</v>
       </c>
     </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C63" t="s">
+        <v>454</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>764</v>
+      </c>
+      <c r="B64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>765</v>
+      </c>
+      <c r="B65" t="s">
+        <v>762</v>
+      </c>
+      <c r="C65" t="s">
+        <v>723</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>766</v>
+      </c>
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>724</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>767</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" t="s">
+        <v>725</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>775</v>
+      </c>
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" t="s">
+        <v>776</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>792</v>
+      </c>
+      <c r="B69" t="s">
+        <v>789</v>
+      </c>
+      <c r="C69" t="s">
+        <v>730</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>793</v>
+      </c>
+      <c r="B70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" t="s">
+        <v>731</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>794</v>
+      </c>
+      <c r="B71" t="s">
+        <v>790</v>
+      </c>
+      <c r="C71" t="s">
+        <v>732</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>795</v>
+      </c>
+      <c r="B72" t="s">
+        <v>791</v>
+      </c>
+      <c r="C72" t="s">
+        <v>733</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3686,10 +5689,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52A5372-DBEB-41B6-A81E-D35450DBEA56}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D99" sqref="D96:D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4944,6 +6947,477 @@
       <c r="F73">
         <v>0</v>
       </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4">
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4">
+        <v>4</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4">
+        <v>5</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B79" t="s">
+        <v>768</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B80" t="s">
+        <v>768</v>
+      </c>
+      <c r="C80" t="s">
+        <v>764</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B81" t="s">
+        <v>768</v>
+      </c>
+      <c r="C81" t="s">
+        <v>765</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B82" t="s">
+        <v>768</v>
+      </c>
+      <c r="C82" t="s">
+        <v>766</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B83" t="s">
+        <v>768</v>
+      </c>
+      <c r="C83" t="s">
+        <v>767</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B84" t="s">
+        <v>774</v>
+      </c>
+      <c r="C84" t="s">
+        <v>40</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B85" t="s">
+        <v>774</v>
+      </c>
+      <c r="C85" t="s">
+        <v>43</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B86" t="s">
+        <v>774</v>
+      </c>
+      <c r="C86" t="s">
+        <v>775</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B87" t="s">
+        <v>780</v>
+      </c>
+      <c r="C87" t="s">
+        <v>492</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B88" t="s">
+        <v>780</v>
+      </c>
+      <c r="C88" t="s">
+        <v>495</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B89" t="s">
+        <v>780</v>
+      </c>
+      <c r="C89" t="s">
+        <v>781</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B90" t="s">
+        <v>788</v>
+      </c>
+      <c r="C90" t="s">
+        <v>792</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B91" t="s">
+        <v>788</v>
+      </c>
+      <c r="C91" t="s">
+        <v>793</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B92" t="s">
+        <v>788</v>
+      </c>
+      <c r="C92" t="s">
+        <v>794</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B93" t="s">
+        <v>788</v>
+      </c>
+      <c r="C93" t="s">
+        <v>795</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B94" t="s">
+        <v>811</v>
+      </c>
+      <c r="C94" t="s">
+        <v>124</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B95" t="s">
+        <v>811</v>
+      </c>
+      <c r="C95" t="s">
+        <v>130</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B96" t="s">
+        <v>850</v>
+      </c>
+      <c r="C96" t="s">
+        <v>108</v>
+      </c>
+      <c r="D96" t="s">
+        <v>855</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B97" t="s">
+        <v>850</v>
+      </c>
+      <c r="C97" t="s">
+        <v>106</v>
+      </c>
+      <c r="D97" t="s">
+        <v>855</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B98" t="s">
+        <v>850</v>
+      </c>
+      <c r="C98" t="s">
+        <v>142</v>
+      </c>
+      <c r="D98" t="s">
+        <v>855</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B99" t="s">
+        <v>850</v>
+      </c>
+      <c r="C99" t="s">
+        <v>139</v>
+      </c>
+      <c r="D99" t="s">
+        <v>855</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5695,7 +8169,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6031,10 +8505,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42808880-C2B9-4DC7-82E0-A8AF856DED1E}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7866,7 +10340,7 @@
         <v>277</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I53" t="s">
         <v>265</v>
@@ -7904,7 +10378,7 @@
         <v>342</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I54" t="s">
         <v>265</v>
@@ -7942,7 +10416,7 @@
         <v>277</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I55" t="s">
         <v>265</v>
@@ -7967,9 +10441,6 @@
       <c r="C56" t="s">
         <v>267</v>
       </c>
-      <c r="D56" t="s">
-        <v>277</v>
-      </c>
       <c r="E56" t="s">
         <v>699</v>
       </c>
@@ -7980,7 +10451,7 @@
         <v>277</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I56" t="s">
         <v>265</v>
@@ -7993,6 +10464,330 @@
       </c>
       <c r="L56" s="1" t="s">
         <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>817</v>
+      </c>
+      <c r="B58" t="s">
+        <v>834</v>
+      </c>
+      <c r="C58" t="s">
+        <v>678</v>
+      </c>
+      <c r="D58" t="s">
+        <v>342</v>
+      </c>
+      <c r="E58" t="s">
+        <v>830</v>
+      </c>
+      <c r="F58" t="s">
+        <v>678</v>
+      </c>
+      <c r="G58" t="s">
+        <v>342</v>
+      </c>
+      <c r="H58">
+        <v>9</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J58">
+        <v>62</v>
+      </c>
+      <c r="K58">
+        <v>1012</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>818</v>
+      </c>
+      <c r="B59" t="s">
+        <v>834</v>
+      </c>
+      <c r="C59" t="s">
+        <v>635</v>
+      </c>
+      <c r="D59" t="s">
+        <v>277</v>
+      </c>
+      <c r="E59" t="s">
+        <v>830</v>
+      </c>
+      <c r="F59" t="s">
+        <v>831</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H59">
+        <v>9</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J59">
+        <v>62</v>
+      </c>
+      <c r="K59">
+        <v>1012</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>819</v>
+      </c>
+      <c r="B60" t="s">
+        <v>834</v>
+      </c>
+      <c r="C60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" t="s">
+        <v>277</v>
+      </c>
+      <c r="E60" t="s">
+        <v>830</v>
+      </c>
+      <c r="F60" t="s">
+        <v>832</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H60">
+        <v>9</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J60">
+        <v>62</v>
+      </c>
+      <c r="K60">
+        <v>1012</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>820</v>
+      </c>
+      <c r="B61" t="s">
+        <v>834</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="D61" t="s">
+        <v>277</v>
+      </c>
+      <c r="E61" t="s">
+        <v>830</v>
+      </c>
+      <c r="F61" t="s">
+        <v>833</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H61">
+        <v>9</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J61">
+        <v>62</v>
+      </c>
+      <c r="K61">
+        <v>1012</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>822</v>
+      </c>
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>823</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="C64" t="s">
+        <v>342</v>
+      </c>
+      <c r="D64" t="s">
+        <v>342</v>
+      </c>
+      <c r="E64" t="s">
+        <v>857</v>
+      </c>
+      <c r="F64" t="s">
+        <v>833</v>
+      </c>
+      <c r="J64">
+        <v>63</v>
+      </c>
+      <c r="K64">
+        <v>1013</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>824</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="C65" t="s">
+        <v>331</v>
+      </c>
+      <c r="D65" t="s">
+        <v>277</v>
+      </c>
+      <c r="E65" t="s">
+        <v>857</v>
+      </c>
+      <c r="F65" t="s">
+        <v>858</v>
+      </c>
+      <c r="J65">
+        <v>63</v>
+      </c>
+      <c r="K65">
+        <v>1013</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>825</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="C66" t="s">
+        <v>861</v>
+      </c>
+      <c r="D66" t="s">
+        <v>342</v>
+      </c>
+      <c r="E66" t="s">
+        <v>857</v>
+      </c>
+      <c r="F66" t="s">
+        <v>859</v>
+      </c>
+      <c r="J66">
+        <v>63</v>
+      </c>
+      <c r="K66">
+        <v>1013</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>826</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="C67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D67" t="s">
+        <v>277</v>
+      </c>
+      <c r="E67" t="s">
+        <v>857</v>
+      </c>
+      <c r="F67" t="s">
+        <v>860</v>
+      </c>
+      <c r="J67">
+        <v>63</v>
+      </c>
+      <c r="K67">
+        <v>1013</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>827</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="C68" t="s">
+        <v>367</v>
+      </c>
+      <c r="D68" t="s">
+        <v>277</v>
+      </c>
+      <c r="E68" t="s">
+        <v>857</v>
+      </c>
+      <c r="F68" t="s">
+        <v>700</v>
+      </c>
+      <c r="J68">
+        <v>63</v>
+      </c>
+      <c r="K68">
+        <v>1013</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>828</v>
+      </c>
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>829</v>
       </c>
     </row>
   </sheetData>
@@ -8006,10 +10801,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9EDC7D2-F164-4AF1-BE00-B6B43F85EA47}">
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:L160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152:A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8060,28 +10855,25 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>500</v>
+        <v>448</v>
       </c>
       <c r="B2" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="C2" t="s">
-        <v>501</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>408</v>
+        <v>56</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -8092,28 +10884,25 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>502</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="C3" t="s">
-        <v>503</v>
+        <v>451</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>451</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -8124,25 +10913,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>592</v>
+        <v>452</v>
       </c>
       <c r="B4" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="C4" t="s">
-        <v>501</v>
+        <v>454</v>
       </c>
       <c r="D4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4">
         <v>42</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" t="s">
-        <v>423</v>
+        <v>260</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -8156,25 +10942,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>593</v>
+        <v>455</v>
       </c>
       <c r="B5" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="C5" t="s">
-        <v>503</v>
+        <v>456</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>457</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -8188,25 +10971,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>554</v>
+        <v>459</v>
       </c>
       <c r="B6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>555</v>
+        <v>453</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>460</v>
       </c>
       <c r="E6">
-        <v>359</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G6" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -8220,25 +11000,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>556</v>
+        <v>462</v>
       </c>
       <c r="B7" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="C7" t="s">
-        <v>557</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>463</v>
       </c>
       <c r="E7">
-        <v>364</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -8252,25 +11029,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>558</v>
+        <v>464</v>
       </c>
       <c r="B8" t="s">
-        <v>419</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>559</v>
+        <v>453</v>
+      </c>
+      <c r="C8" t="s">
+        <v>465</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>466</v>
       </c>
       <c r="E8">
-        <v>352</v>
+        <v>189</v>
       </c>
       <c r="F8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -8284,25 +11058,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>560</v>
+        <v>467</v>
       </c>
       <c r="B9" t="s">
-        <v>419</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>561</v>
+        <v>453</v>
+      </c>
+      <c r="C9" t="s">
+        <v>468</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>469</v>
       </c>
       <c r="E9">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="F9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G9" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -8316,25 +11087,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>562</v>
+        <v>470</v>
       </c>
       <c r="B10" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="C10" t="s">
-        <v>563</v>
+        <v>456</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>457</v>
       </c>
       <c r="E10">
-        <v>356</v>
+        <v>291</v>
       </c>
       <c r="F10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" t="s">
-        <v>420</v>
+        <v>457</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -8348,25 +11116,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>564</v>
+        <v>471</v>
       </c>
       <c r="B11" t="s">
-        <v>419</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>565</v>
+        <v>453</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>463</v>
       </c>
       <c r="E11">
-        <v>360</v>
+        <v>292</v>
       </c>
       <c r="F11" t="s">
-        <v>167</v>
-      </c>
-      <c r="G11" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -8380,25 +11145,25 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>566</v>
+        <v>473</v>
       </c>
       <c r="B12" t="s">
-        <v>419</v>
+        <v>474</v>
       </c>
       <c r="C12" t="s">
-        <v>567</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="E12">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -8412,25 +11177,25 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>568</v>
+        <v>475</v>
       </c>
       <c r="B13" t="s">
-        <v>419</v>
+        <v>474</v>
       </c>
       <c r="C13" t="s">
-        <v>569</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E13">
-        <v>355</v>
+        <v>411</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -8444,25 +11209,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>570</v>
+        <v>476</v>
       </c>
       <c r="B14" t="s">
-        <v>419</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>571</v>
+        <v>474</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="E14">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="F14" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -8476,25 +11241,25 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>572</v>
+        <v>477</v>
       </c>
       <c r="B15" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="C15" t="s">
-        <v>573</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="E15">
-        <v>357</v>
+        <v>408</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -8508,25 +11273,25 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>574</v>
+        <v>479</v>
       </c>
       <c r="B16" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="C16" t="s">
-        <v>575</v>
+        <v>136</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E16">
-        <v>350</v>
+        <v>409</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -8540,31 +11305,31 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>576</v>
+        <v>480</v>
       </c>
       <c r="B17" t="s">
-        <v>419</v>
+        <v>481</v>
       </c>
       <c r="C17" t="s">
-        <v>577</v>
+        <v>482</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="E17">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="G17" t="s">
-        <v>420</v>
+        <v>373</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>339</v>
@@ -8572,31 +11337,31 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>578</v>
+        <v>483</v>
       </c>
       <c r="B18" t="s">
-        <v>419</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>579</v>
+        <v>481</v>
+      </c>
+      <c r="C18" t="s">
+        <v>482</v>
       </c>
       <c r="D18" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="E18">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="G18" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>339</v>
@@ -8604,31 +11369,31 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>580</v>
+        <v>484</v>
       </c>
       <c r="B19" t="s">
-        <v>419</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>581</v>
+        <v>481</v>
+      </c>
+      <c r="C19" t="s">
+        <v>485</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="E19">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="G19" t="s">
-        <v>420</v>
+        <v>373</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>339</v>
@@ -8636,31 +11401,31 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>582</v>
+        <v>486</v>
       </c>
       <c r="B20" t="s">
-        <v>419</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>583</v>
+        <v>481</v>
+      </c>
+      <c r="C20" t="s">
+        <v>485</v>
       </c>
       <c r="D20" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="E20">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="F20" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="G20" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>339</v>
@@ -8668,31 +11433,31 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>584</v>
+        <v>487</v>
       </c>
       <c r="B21" t="s">
-        <v>419</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>585</v>
+        <v>481</v>
+      </c>
+      <c r="C21" t="s">
+        <v>488</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="E21">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>463</v>
       </c>
       <c r="G21" t="s">
-        <v>420</v>
+        <v>373</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>339</v>
@@ -8700,31 +11465,31 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>586</v>
+        <v>489</v>
       </c>
       <c r="B22" t="s">
-        <v>419</v>
+        <v>481</v>
       </c>
       <c r="C22" t="s">
-        <v>587</v>
+        <v>488</v>
       </c>
       <c r="D22" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="E22">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="F22" t="s">
-        <v>163</v>
+        <v>463</v>
       </c>
       <c r="G22" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>339</v>
@@ -8732,31 +11497,31 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>588</v>
+        <v>490</v>
       </c>
       <c r="B23" t="s">
-        <v>419</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>589</v>
+        <v>491</v>
+      </c>
+      <c r="C23" t="s">
+        <v>492</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="E23">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="F23" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="G23" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>339</v>
@@ -8764,31 +11529,31 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>590</v>
+        <v>493</v>
       </c>
       <c r="B24" t="s">
-        <v>419</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>591</v>
+        <v>491</v>
+      </c>
+      <c r="C24" t="s">
+        <v>492</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="E24">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="F24" t="s">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="G24" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>339</v>
@@ -8796,31 +11561,31 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="B25" t="s">
-        <v>404</v>
+        <v>491</v>
       </c>
       <c r="C25" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="E25">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="F25" t="s">
-        <v>520</v>
+        <v>107</v>
       </c>
       <c r="G25" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>339</v>
@@ -8828,31 +11593,31 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="B26" t="s">
-        <v>404</v>
+        <v>491</v>
       </c>
       <c r="C26" t="s">
-        <v>522</v>
+        <v>495</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="E26">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="F26" t="s">
-        <v>523</v>
+        <v>107</v>
       </c>
       <c r="G26" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>339</v>
@@ -8860,31 +11625,31 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>524</v>
+        <v>497</v>
       </c>
       <c r="B27" t="s">
-        <v>404</v>
+        <v>491</v>
       </c>
       <c r="C27" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="E27">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="F27" t="s">
-        <v>526</v>
+        <v>111</v>
       </c>
       <c r="G27" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>339</v>
@@ -8892,31 +11657,31 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="B28" t="s">
-        <v>404</v>
+        <v>491</v>
       </c>
       <c r="C28" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="E28">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="F28" t="s">
-        <v>529</v>
+        <v>111</v>
       </c>
       <c r="G28" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>339</v>
@@ -8924,25 +11689,25 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="B29" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C29" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E29">
-        <v>367</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>532</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -8956,25 +11721,25 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>533</v>
+        <v>502</v>
       </c>
       <c r="B30" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C30" t="s">
-        <v>534</v>
+        <v>503</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E30">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>535</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -9052,25 +11817,25 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="B33" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="C33" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E33">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="F33" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="G33" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -9084,25 +11849,25 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>539</v>
+        <v>508</v>
       </c>
       <c r="B34" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="C34" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E34">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="F34" t="s">
-        <v>541</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -9116,22 +11881,22 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B35" t="s">
         <v>410</v>
       </c>
       <c r="C35" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E35">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F35" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s">
         <v>411</v>
@@ -9148,22 +11913,22 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B36" t="s">
         <v>410</v>
       </c>
       <c r="C36" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E36">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s">
         <v>411</v>
@@ -9180,22 +11945,22 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B37" t="s">
         <v>410</v>
       </c>
       <c r="C37" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E37">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F37" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s">
         <v>411</v>
@@ -9212,22 +11977,22 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B38" t="s">
         <v>410</v>
       </c>
       <c r="C38" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E38">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s">
         <v>411</v>
@@ -9244,25 +12009,25 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B39" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C39" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="E39">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="F39" t="s">
-        <v>86</v>
+        <v>520</v>
       </c>
       <c r="G39" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -9276,25 +12041,25 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="B40" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C40" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="E40">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>523</v>
       </c>
       <c r="G40" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -9308,25 +12073,25 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="B41" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C41" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E41">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="F41" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="G41" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -9340,25 +12105,25 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="B42" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C42" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E42">
-        <v>402</v>
+        <v>365</v>
       </c>
       <c r="F42" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="G42" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -9372,25 +12137,25 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="B43" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C43" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E43">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="F43" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="G43" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -9404,25 +12169,25 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="B44" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C44" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E44">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="F44" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="G44" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -9436,31 +12201,31 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>614</v>
+        <v>536</v>
       </c>
       <c r="B45" t="s">
-        <v>615</v>
+        <v>394</v>
       </c>
       <c r="C45" t="s">
-        <v>616</v>
+        <v>537</v>
       </c>
       <c r="D45" t="s">
-        <v>617</v>
+        <v>69</v>
       </c>
       <c r="E45">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="F45" t="s">
-        <v>618</v>
+        <v>538</v>
       </c>
       <c r="G45" t="s">
-        <v>440</v>
+        <v>397</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>339</v>
@@ -9468,31 +12233,31 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>619</v>
+        <v>539</v>
       </c>
       <c r="B46" t="s">
-        <v>615</v>
+        <v>394</v>
       </c>
       <c r="C46" t="s">
-        <v>620</v>
+        <v>540</v>
       </c>
       <c r="D46" t="s">
-        <v>621</v>
+        <v>66</v>
       </c>
       <c r="E46">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="F46" t="s">
-        <v>620</v>
+        <v>541</v>
       </c>
       <c r="G46" t="s">
-        <v>440</v>
+        <v>397</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>339</v>
@@ -9500,31 +12265,31 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>622</v>
+        <v>542</v>
       </c>
       <c r="B47" t="s">
-        <v>615</v>
+        <v>399</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>543</v>
       </c>
       <c r="D47" t="s">
-        <v>623</v>
+        <v>96</v>
       </c>
       <c r="E47">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="F47" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="G47" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>339</v>
@@ -9532,31 +12297,31 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>624</v>
+        <v>545</v>
       </c>
       <c r="B48" t="s">
-        <v>615</v>
+        <v>399</v>
       </c>
       <c r="C48" t="s">
-        <v>625</v>
+        <v>546</v>
       </c>
       <c r="D48" t="s">
-        <v>626</v>
+        <v>90</v>
       </c>
       <c r="E48">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="F48" t="s">
-        <v>627</v>
+        <v>547</v>
       </c>
       <c r="G48" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>339</v>
@@ -9564,31 +12329,31 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>628</v>
+        <v>548</v>
       </c>
       <c r="B49" t="s">
-        <v>615</v>
+        <v>399</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>549</v>
       </c>
       <c r="D49" t="s">
-        <v>532</v>
+        <v>99</v>
       </c>
       <c r="E49">
-        <v>464</v>
+        <v>401</v>
       </c>
       <c r="F49" t="s">
-        <v>463</v>
+        <v>550</v>
       </c>
       <c r="G49" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>339</v>
@@ -9596,19 +12361,25 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>638</v>
+        <v>551</v>
       </c>
       <c r="B50" t="s">
-        <v>639</v>
+        <v>399</v>
+      </c>
+      <c r="C50" t="s">
+        <v>552</v>
+      </c>
+      <c r="D50" t="s">
+        <v>93</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>403</v>
       </c>
       <c r="F50" t="s">
-        <v>141</v>
+        <v>553</v>
       </c>
       <c r="G50" t="s">
-        <v>639</v>
+        <v>400</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -9622,25 +12393,25 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>634</v>
+        <v>554</v>
       </c>
       <c r="B51" t="s">
-        <v>635</v>
-      </c>
-      <c r="C51" t="s">
-        <v>492</v>
+        <v>419</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>555</v>
       </c>
       <c r="D51" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="E51">
-        <v>37</v>
+        <v>359</v>
       </c>
       <c r="F51" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="G51" t="s">
-        <v>635</v>
+        <v>420</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -9654,25 +12425,25 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>636</v>
+        <v>556</v>
       </c>
       <c r="B52" t="s">
-        <v>635</v>
+        <v>419</v>
       </c>
       <c r="C52" t="s">
-        <v>495</v>
+        <v>557</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="E52">
-        <v>38</v>
+        <v>364</v>
       </c>
       <c r="F52" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="G52" t="s">
-        <v>635</v>
+        <v>420</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -9686,19 +12457,25 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>637</v>
+        <v>558</v>
       </c>
       <c r="B53" t="s">
-        <v>635</v>
+        <v>419</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D53" t="s">
+        <v>151</v>
       </c>
       <c r="E53">
-        <v>39</v>
+        <v>352</v>
       </c>
       <c r="F53" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G53" t="s">
-        <v>635</v>
+        <v>420</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -9712,22 +12489,25 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>452</v>
+        <v>560</v>
       </c>
       <c r="B54" t="s">
-        <v>453</v>
-      </c>
-      <c r="C54" t="s">
-        <v>454</v>
+        <v>419</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>561</v>
       </c>
       <c r="D54" t="s">
-        <v>260</v>
+        <v>171</v>
       </c>
       <c r="E54">
-        <v>42</v>
+        <v>362</v>
       </c>
       <c r="F54" t="s">
-        <v>260</v>
+        <v>171</v>
+      </c>
+      <c r="G54" t="s">
+        <v>420</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -9741,22 +12521,25 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>455</v>
+        <v>562</v>
       </c>
       <c r="B55" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="C55" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="D55" t="s">
-        <v>457</v>
+        <v>159</v>
       </c>
       <c r="E55">
-        <v>43</v>
+        <v>356</v>
       </c>
       <c r="F55" t="s">
-        <v>458</v>
+        <v>159</v>
+      </c>
+      <c r="G55" t="s">
+        <v>420</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -9770,22 +12553,25 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>459</v>
+        <v>564</v>
       </c>
       <c r="B56" t="s">
-        <v>453</v>
-      </c>
-      <c r="C56" t="s">
-        <v>50</v>
+        <v>419</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="D56" t="s">
-        <v>460</v>
+        <v>167</v>
       </c>
       <c r="E56">
-        <v>44</v>
+        <v>360</v>
       </c>
       <c r="F56" t="s">
-        <v>461</v>
+        <v>167</v>
+      </c>
+      <c r="G56" t="s">
+        <v>420</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -9799,22 +12585,25 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>462</v>
+        <v>566</v>
       </c>
       <c r="B57" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>567</v>
       </c>
       <c r="D57" t="s">
-        <v>463</v>
+        <v>74</v>
       </c>
       <c r="E57">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="F57" t="s">
-        <v>463</v>
+        <v>74</v>
+      </c>
+      <c r="G57" t="s">
+        <v>420</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -9828,22 +12617,25 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>464</v>
+        <v>568</v>
       </c>
       <c r="B58" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="C58" t="s">
-        <v>465</v>
+        <v>569</v>
       </c>
       <c r="D58" t="s">
-        <v>466</v>
+        <v>146</v>
       </c>
       <c r="E58">
-        <v>189</v>
+        <v>355</v>
       </c>
       <c r="F58" t="s">
-        <v>466</v>
+        <v>146</v>
+      </c>
+      <c r="G58" t="s">
+        <v>420</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -9857,22 +12649,25 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>467</v>
+        <v>570</v>
       </c>
       <c r="B59" t="s">
-        <v>453</v>
-      </c>
-      <c r="C59" t="s">
-        <v>468</v>
+        <v>419</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>571</v>
       </c>
       <c r="D59" t="s">
-        <v>469</v>
+        <v>169</v>
       </c>
       <c r="E59">
-        <v>290</v>
+        <v>361</v>
       </c>
       <c r="F59" t="s">
-        <v>469</v>
+        <v>169</v>
+      </c>
+      <c r="G59" t="s">
+        <v>420</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -9886,22 +12681,25 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>470</v>
+        <v>572</v>
       </c>
       <c r="B60" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="C60" t="s">
-        <v>456</v>
+        <v>573</v>
       </c>
       <c r="D60" t="s">
-        <v>457</v>
+        <v>161</v>
       </c>
       <c r="E60">
-        <v>291</v>
+        <v>357</v>
       </c>
       <c r="F60" t="s">
-        <v>457</v>
+        <v>161</v>
+      </c>
+      <c r="G60" t="s">
+        <v>420</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -9915,22 +12713,25 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>471</v>
+        <v>574</v>
       </c>
       <c r="B61" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="C61" t="s">
-        <v>62</v>
+        <v>575</v>
       </c>
       <c r="D61" t="s">
-        <v>463</v>
+        <v>147</v>
       </c>
       <c r="E61">
-        <v>292</v>
+        <v>350</v>
       </c>
       <c r="F61" t="s">
-        <v>472</v>
+        <v>147</v>
+      </c>
+      <c r="G61" t="s">
+        <v>420</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -9944,31 +12745,31 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>610</v>
+        <v>576</v>
       </c>
       <c r="B62" t="s">
-        <v>611</v>
+        <v>419</v>
       </c>
       <c r="C62" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="E62">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="F62" t="s">
-        <v>523</v>
+        <v>77</v>
       </c>
       <c r="G62" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>339</v>
@@ -9976,31 +12777,31 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>612</v>
+        <v>578</v>
       </c>
       <c r="B63" t="s">
-        <v>611</v>
-      </c>
-      <c r="C63" t="s">
-        <v>501</v>
+        <v>419</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>579</v>
       </c>
       <c r="D63" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="E63">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="G63" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>339</v>
@@ -10008,31 +12809,31 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>613</v>
+        <v>580</v>
       </c>
       <c r="B64" t="s">
-        <v>611</v>
-      </c>
-      <c r="C64" t="s">
-        <v>503</v>
+        <v>419</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>581</v>
       </c>
       <c r="D64" t="s">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="E64">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="G64" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>339</v>
@@ -10040,31 +12841,31 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="B65" t="s">
-        <v>603</v>
-      </c>
-      <c r="C65" t="s">
-        <v>492</v>
+        <v>419</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>583</v>
       </c>
       <c r="D65" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="E65">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="F65" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="G65" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>339</v>
@@ -10072,31 +12873,31 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="B66" t="s">
-        <v>603</v>
-      </c>
-      <c r="C66" t="s">
-        <v>495</v>
+        <v>419</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>585</v>
       </c>
       <c r="D66" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="E66">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="F66" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="G66" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>339</v>
@@ -10104,31 +12905,31 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
       <c r="B67" t="s">
-        <v>603</v>
+        <v>419</v>
       </c>
       <c r="C67" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="D67" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="E67">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="F67" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="G67" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>339</v>
@@ -10136,31 +12937,31 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B68" t="s">
-        <v>595</v>
-      </c>
-      <c r="C68" t="s">
-        <v>492</v>
+        <v>419</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="D68" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="E68">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="F68" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="G68" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>339</v>
@@ -10168,31 +12969,31 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B69" t="s">
-        <v>595</v>
-      </c>
-      <c r="C69" t="s">
-        <v>495</v>
+        <v>419</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>591</v>
       </c>
       <c r="D69" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="E69">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F69" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="G69" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>339</v>
@@ -10200,31 +13001,31 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B70" t="s">
-        <v>595</v>
+        <v>422</v>
       </c>
       <c r="C70" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D70" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="E70">
-        <v>377</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>339</v>
@@ -10232,31 +13033,31 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="B71" t="s">
-        <v>608</v>
+        <v>422</v>
       </c>
       <c r="C71" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D71" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G71" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>339</v>
@@ -10264,25 +13065,25 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="B72" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="C72" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="D72" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="F72" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="G72" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -10296,25 +13097,25 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B73" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C73" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E73">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G73" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -10328,25 +13129,25 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B74" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C74" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E74">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F74" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G74" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -10360,22 +13161,22 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B75" t="s">
         <v>599</v>
       </c>
       <c r="C75" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D75" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E75">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F75" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G75" t="s">
         <v>437</v>
@@ -10392,31 +13193,31 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="B76" t="s">
-        <v>481</v>
+        <v>599</v>
       </c>
       <c r="C76" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="D76" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E76">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="F76" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G76" t="s">
-        <v>373</v>
+        <v>437</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>339</v>
@@ -10424,31 +13225,31 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>483</v>
+        <v>601</v>
       </c>
       <c r="B77" t="s">
-        <v>481</v>
+        <v>599</v>
       </c>
       <c r="C77" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="D77" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E77">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="F77" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G77" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>339</v>
@@ -10456,31 +13257,31 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>484</v>
+        <v>602</v>
       </c>
       <c r="B78" t="s">
-        <v>481</v>
+        <v>603</v>
       </c>
       <c r="C78" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="D78" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E78">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="F78" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G78" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>339</v>
@@ -10488,31 +13289,31 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>486</v>
+        <v>604</v>
       </c>
       <c r="B79" t="s">
-        <v>481</v>
+        <v>603</v>
       </c>
       <c r="C79" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="D79" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E79">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="F79" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G79" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>339</v>
@@ -10520,31 +13321,31 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>487</v>
+        <v>605</v>
       </c>
       <c r="B80" t="s">
-        <v>481</v>
+        <v>603</v>
       </c>
       <c r="C80" t="s">
-        <v>488</v>
+        <v>606</v>
       </c>
       <c r="D80" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E80">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="F80" t="s">
-        <v>463</v>
+        <v>114</v>
       </c>
       <c r="G80" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>339</v>
@@ -10552,31 +13353,31 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>489</v>
+        <v>607</v>
       </c>
       <c r="B81" t="s">
-        <v>481</v>
+        <v>608</v>
       </c>
       <c r="C81" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="D81" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="E81">
-        <v>381</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>463</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>339</v>
@@ -10584,31 +13385,31 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>490</v>
+        <v>609</v>
       </c>
       <c r="B82" t="s">
-        <v>491</v>
+        <v>608</v>
       </c>
       <c r="C82" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="E82">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="G82" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>339</v>
@@ -10616,31 +13417,31 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>493</v>
+        <v>610</v>
       </c>
       <c r="B83" t="s">
-        <v>491</v>
+        <v>611</v>
       </c>
       <c r="C83" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="E83">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="F83" t="s">
-        <v>109</v>
+        <v>523</v>
       </c>
       <c r="G83" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>339</v>
@@ -10648,31 +13449,31 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>494</v>
+        <v>612</v>
       </c>
       <c r="B84" t="s">
-        <v>491</v>
+        <v>611</v>
       </c>
       <c r="C84" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="E84">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="F84" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="H84">
         <v>1</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>339</v>
@@ -10680,31 +13481,31 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>496</v>
+        <v>613</v>
       </c>
       <c r="B85" t="s">
-        <v>491</v>
+        <v>611</v>
       </c>
       <c r="C85" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="E85">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="F85" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="G85" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="H85">
         <v>1</v>
       </c>
       <c r="I85">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>339</v>
@@ -10712,31 +13513,31 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>497</v>
+        <v>614</v>
       </c>
       <c r="B86" t="s">
-        <v>491</v>
+        <v>615</v>
       </c>
       <c r="C86" t="s">
-        <v>498</v>
+        <v>616</v>
       </c>
       <c r="D86" t="s">
-        <v>111</v>
+        <v>617</v>
       </c>
       <c r="E86">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="F86" t="s">
-        <v>111</v>
+        <v>618</v>
       </c>
       <c r="G86" t="s">
-        <v>382</v>
+        <v>440</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>339</v>
@@ -10744,31 +13545,31 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>499</v>
+        <v>619</v>
       </c>
       <c r="B87" t="s">
-        <v>491</v>
+        <v>615</v>
       </c>
       <c r="C87" t="s">
-        <v>498</v>
+        <v>620</v>
       </c>
       <c r="D87" t="s">
-        <v>111</v>
+        <v>621</v>
       </c>
       <c r="E87">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="F87" t="s">
-        <v>111</v>
+        <v>620</v>
       </c>
       <c r="G87" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>339</v>
@@ -10776,31 +13577,31 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>477</v>
+        <v>622</v>
       </c>
       <c r="B88" t="s">
-        <v>478</v>
+        <v>615</v>
       </c>
       <c r="C88" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="D88" t="s">
-        <v>135</v>
+        <v>623</v>
       </c>
       <c r="E88">
-        <v>408</v>
+        <v>354</v>
       </c>
       <c r="F88" t="s">
-        <v>135</v>
+        <v>523</v>
       </c>
       <c r="G88" t="s">
-        <v>363</v>
+        <v>440</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>339</v>
@@ -10808,31 +13609,31 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>479</v>
+        <v>624</v>
       </c>
       <c r="B89" t="s">
-        <v>478</v>
+        <v>615</v>
       </c>
       <c r="C89" t="s">
-        <v>136</v>
+        <v>625</v>
       </c>
       <c r="D89" t="s">
-        <v>138</v>
+        <v>626</v>
       </c>
       <c r="E89">
-        <v>409</v>
+        <v>360</v>
       </c>
       <c r="F89" t="s">
-        <v>138</v>
+        <v>627</v>
       </c>
       <c r="G89" t="s">
-        <v>363</v>
+        <v>440</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>339</v>
@@ -10840,31 +13641,31 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>473</v>
+        <v>628</v>
       </c>
       <c r="B90" t="s">
-        <v>474</v>
+        <v>615</v>
       </c>
       <c r="C90" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="D90" t="s">
-        <v>125</v>
+        <v>532</v>
       </c>
       <c r="E90">
-        <v>410</v>
+        <v>464</v>
       </c>
       <c r="F90" t="s">
-        <v>125</v>
+        <v>463</v>
       </c>
       <c r="G90" t="s">
-        <v>368</v>
+        <v>440</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>339</v>
@@ -10872,25 +13673,25 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>475</v>
+        <v>629</v>
       </c>
       <c r="B91" t="s">
-        <v>474</v>
+        <v>630</v>
       </c>
       <c r="C91" t="s">
-        <v>126</v>
+        <v>631</v>
       </c>
       <c r="D91" t="s">
-        <v>127</v>
+        <v>631</v>
       </c>
       <c r="E91">
-        <v>411</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>132</v>
+        <v>632</v>
       </c>
       <c r="G91" t="s">
-        <v>368</v>
+        <v>630</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -10904,25 +13705,19 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>476</v>
+        <v>633</v>
       </c>
       <c r="B92" t="s">
-        <v>474</v>
-      </c>
-      <c r="C92" t="s">
-        <v>130</v>
-      </c>
-      <c r="D92" t="s">
-        <v>132</v>
+        <v>630</v>
       </c>
       <c r="E92">
-        <v>412</v>
+        <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>127</v>
+        <v>463</v>
       </c>
       <c r="G92" t="s">
-        <v>368</v>
+        <v>630</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -10936,25 +13731,25 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B93" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="C93" t="s">
-        <v>631</v>
+        <v>492</v>
       </c>
       <c r="D93" t="s">
-        <v>631</v>
+        <v>109</v>
       </c>
       <c r="E93">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F93" t="s">
-        <v>632</v>
+        <v>109</v>
       </c>
       <c r="G93" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -10968,19 +13763,25 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B94" t="s">
-        <v>630</v>
+        <v>635</v>
+      </c>
+      <c r="C94" t="s">
+        <v>495</v>
+      </c>
+      <c r="D94" t="s">
+        <v>107</v>
       </c>
       <c r="E94">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>463</v>
+        <v>107</v>
       </c>
       <c r="G94" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -10994,25 +13795,19 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B95" t="s">
-        <v>630</v>
-      </c>
-      <c r="C95" t="s">
-        <v>641</v>
-      </c>
-      <c r="D95" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="F95" t="s">
-        <v>642</v>
+        <v>141</v>
       </c>
       <c r="G95" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -11026,25 +13821,19 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B96" t="s">
-        <v>630</v>
-      </c>
-      <c r="C96" t="s">
-        <v>644</v>
-      </c>
-      <c r="D96" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F96" t="s">
-        <v>642</v>
+        <v>141</v>
       </c>
       <c r="G96" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -11056,24 +13845,24 @@
         <v>339</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B97" t="s">
         <v>630</v>
       </c>
       <c r="C97" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D97" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F97" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="G97" t="s">
         <v>630</v>
@@ -11088,24 +13877,24 @@
         <v>339</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B98" t="s">
         <v>630</v>
       </c>
       <c r="C98" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D98" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="E98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="G98" t="s">
         <v>630</v>
@@ -11120,24 +13909,24 @@
         <v>339</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B99" t="s">
         <v>630</v>
       </c>
       <c r="C99" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D99" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E99">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F99" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="G99" t="s">
         <v>630</v>
@@ -11152,24 +13941,24 @@
         <v>339</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B100" t="s">
         <v>630</v>
       </c>
       <c r="C100" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D100" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E100">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F100" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="G100" t="s">
         <v>630</v>
@@ -11184,24 +13973,24 @@
         <v>339</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B101" t="s">
         <v>630</v>
       </c>
       <c r="C101" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D101" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E101">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="G101" t="s">
         <v>630</v>
@@ -11216,24 +14005,24 @@
         <v>339</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B102" t="s">
         <v>630</v>
       </c>
       <c r="C102" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D102" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E102">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="G102" t="s">
         <v>630</v>
@@ -11248,62 +14037,1729 @@
         <v>339</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>654</v>
+      </c>
+      <c r="B103" t="s">
+        <v>630</v>
+      </c>
+      <c r="C103" t="s">
+        <v>655</v>
+      </c>
+      <c r="D103" t="s">
+        <v>655</v>
+      </c>
+      <c r="E103">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>656</v>
+      </c>
+      <c r="G103" t="s">
+        <v>630</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>657</v>
+      </c>
+      <c r="B104" t="s">
+        <v>630</v>
+      </c>
+      <c r="C104" t="s">
+        <v>658</v>
+      </c>
+      <c r="D104" t="s">
+        <v>658</v>
+      </c>
+      <c r="E104">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s">
+        <v>656</v>
+      </c>
+      <c r="G104" t="s">
+        <v>630</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>708</v>
+      </c>
+      <c r="B106" t="s">
+        <v>704</v>
+      </c>
+      <c r="C106" t="s">
+        <v>501</v>
+      </c>
+      <c r="D106" t="s">
+        <v>42</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>42</v>
+      </c>
+      <c r="G106" t="s">
+        <v>667</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L106" t="str">
+        <f>Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
+        <v>d18a3ef4-004f-11e8-ba89-0ed5f89f718b.ObsPartnerScreening.PnsAccepted</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>709</v>
+      </c>
+      <c r="B107" t="s">
+        <v>704</v>
+      </c>
+      <c r="C107" t="s">
+        <v>503</v>
+      </c>
+      <c r="D107" t="s">
+        <v>45</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107" t="s">
+        <v>45</v>
+      </c>
+      <c r="G107" t="s">
+        <v>667</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L107" t="str">
+        <f>Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
+        <v>d18a416a-004f-11e8-ba89-0ed5f89f718b.ObsPartnerScreening.PnsAccepted</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>710</v>
+      </c>
+      <c r="B108" t="s">
+        <v>705</v>
+      </c>
+      <c r="C108" t="s">
+        <v>501</v>
+      </c>
+      <c r="D108" t="s">
+        <v>42</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
+        <v>42</v>
+      </c>
+      <c r="G108" t="s">
+        <v>669</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L108" t="str">
+        <f>Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
+        <v>d18a42be-004f-11e8-ba89-0ed5f89f718b.ObsPartnerScreening.PhysicalAssult</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>711</v>
+      </c>
+      <c r="B109" t="s">
+        <v>705</v>
+      </c>
+      <c r="C109" t="s">
+        <v>503</v>
+      </c>
+      <c r="D109" t="s">
+        <v>45</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109" t="s">
+        <v>45</v>
+      </c>
+      <c r="G109" t="s">
+        <v>669</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L109" t="str">
+        <f>Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
+        <v>d18a43e0-004f-11e8-ba89-0ed5f89f718b.ObsPartnerScreening.PhysicalAssult</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>712</v>
+      </c>
+      <c r="B110" t="s">
+        <v>706</v>
+      </c>
+      <c r="C110" t="s">
+        <v>501</v>
+      </c>
+      <c r="D110" t="s">
+        <v>42</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>42</v>
+      </c>
+      <c r="G110" t="s">
+        <v>670</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L110" t="str">
+        <f>Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
+        <v>d18a450c-004f-11e8-ba89-0ed5f89f718b.ObsPartnerScreening.Threatened</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>713</v>
+      </c>
+      <c r="B111" t="s">
+        <v>706</v>
+      </c>
+      <c r="C111" t="s">
+        <v>503</v>
+      </c>
+      <c r="D111" t="s">
+        <v>45</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111" t="s">
+        <v>45</v>
+      </c>
+      <c r="G111" t="s">
+        <v>670</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L111" t="str">
+        <f>Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
+        <v>d18a462e-004f-11e8-ba89-0ed5f89f718b.ObsPartnerScreening.Threatened</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>714</v>
+      </c>
+      <c r="B112" t="s">
+        <v>707</v>
+      </c>
+      <c r="C112" t="s">
+        <v>501</v>
+      </c>
+      <c r="D112" t="s">
+        <v>42</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>42</v>
+      </c>
+      <c r="G112" t="s">
+        <v>671</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L112" t="str">
+        <f>Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
+        <v>d18a4746-004f-11e8-ba89-0ed5f89f718b.ObsPartnerScreening.SexuallyUncomfortable</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>715</v>
+      </c>
+      <c r="B113" t="s">
+        <v>707</v>
+      </c>
+      <c r="C113" t="s">
+        <v>503</v>
+      </c>
+      <c r="D113" t="s">
+        <v>45</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113" t="s">
+        <v>45</v>
+      </c>
+      <c r="G113" t="s">
+        <v>671</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L113" t="str">
+        <f>Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
+        <v>d18a4ade-004f-11e8-ba89-0ed5f89f718b.ObsPartnerScreening.SexuallyUncomfortable</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>734</v>
+      </c>
+      <c r="B114" t="s">
+        <v>716</v>
+      </c>
+      <c r="C114" t="s">
+        <v>501</v>
+      </c>
+      <c r="D114" t="s">
+        <v>42</v>
+      </c>
+      <c r="E114">
+        <v>436</v>
+      </c>
+      <c r="F114" t="s">
+        <v>41</v>
+      </c>
+      <c r="G114" t="s">
+        <v>668</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L114" t="str">
+        <f>Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
+        <v>9c213e00-0051-11e8-ba89-0ed5f89f718b.ObsPartnerScreening.IPVScreening</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>735</v>
+      </c>
+      <c r="B115" t="s">
+        <v>716</v>
+      </c>
+      <c r="C115" t="s">
+        <v>503</v>
+      </c>
+      <c r="D115" t="s">
+        <v>45</v>
+      </c>
+      <c r="E115">
+        <v>437</v>
+      </c>
+      <c r="F115" t="s">
+        <v>44</v>
+      </c>
+      <c r="G115" t="s">
+        <v>668</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L115" t="str">
+        <f>Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
+        <v>9c213f72-0051-11e8-ba89-0ed5f89f718b.ObsPartnerScreening.IPVScreening</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>736</v>
+      </c>
+      <c r="B116" t="s">
+        <v>716</v>
+      </c>
+      <c r="C116" t="s">
+        <v>522</v>
+      </c>
+      <c r="D116" t="s">
+        <v>48</v>
+      </c>
+      <c r="E116">
+        <v>438</v>
+      </c>
+      <c r="F116" t="s">
+        <v>47</v>
+      </c>
+      <c r="G116" t="s">
+        <v>668</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>737</v>
+      </c>
+      <c r="B117" t="s">
+        <v>717</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E117">
+        <v>439</v>
+      </c>
+      <c r="F117" t="s">
+        <v>138</v>
+      </c>
+      <c r="G117" t="s">
+        <v>672</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>738</v>
+      </c>
+      <c r="B118" t="s">
+        <v>717</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="E118">
+        <v>440</v>
+      </c>
+      <c r="F118" t="s">
+        <v>718</v>
+      </c>
+      <c r="G118" t="s">
+        <v>672</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>739</v>
+      </c>
+      <c r="B119" t="s">
+        <v>717</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="E119">
+        <v>441</v>
+      </c>
+      <c r="F119" t="s">
+        <v>719</v>
+      </c>
+      <c r="G119" t="s">
+        <v>672</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>740</v>
+      </c>
+      <c r="B120" t="s">
+        <v>717</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="E120">
+        <v>442</v>
+      </c>
+      <c r="F120" t="s">
+        <v>720</v>
+      </c>
+      <c r="G120" t="s">
+        <v>672</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>741</v>
+      </c>
+      <c r="B121" t="s">
+        <v>717</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="E121">
+        <v>443</v>
+      </c>
+      <c r="F121" t="s">
+        <v>721</v>
+      </c>
+      <c r="G121" t="s">
+        <v>672</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>742</v>
+      </c>
+      <c r="B122" t="s">
+        <v>722</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="D122" t="s">
+        <v>454</v>
+      </c>
+      <c r="E122">
+        <v>444</v>
+      </c>
+      <c r="F122" t="s">
+        <v>454</v>
+      </c>
+      <c r="G122" t="s">
+        <v>674</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>743</v>
+      </c>
+      <c r="B123" t="s">
+        <v>722</v>
+      </c>
+      <c r="C123" t="s">
+        <v>764</v>
+      </c>
+      <c r="D123" t="s">
+        <v>59</v>
+      </c>
+      <c r="E123">
+        <v>445</v>
+      </c>
+      <c r="F123" t="s">
+        <v>59</v>
+      </c>
+      <c r="G123" t="s">
+        <v>674</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>744</v>
+      </c>
+      <c r="B124" t="s">
+        <v>722</v>
+      </c>
+      <c r="C124" t="s">
+        <v>765</v>
+      </c>
+      <c r="D124" t="s">
+        <v>723</v>
+      </c>
+      <c r="E124">
+        <v>446</v>
+      </c>
+      <c r="F124" t="s">
+        <v>723</v>
+      </c>
+      <c r="G124" t="s">
+        <v>674</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>745</v>
+      </c>
+      <c r="B125" t="s">
+        <v>722</v>
+      </c>
+      <c r="C125" t="s">
+        <v>766</v>
+      </c>
+      <c r="D125" t="s">
+        <v>724</v>
+      </c>
+      <c r="E125">
+        <v>447</v>
+      </c>
+      <c r="F125" t="s">
+        <v>724</v>
+      </c>
+      <c r="G125" t="s">
+        <v>674</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>746</v>
+      </c>
+      <c r="B126" t="s">
+        <v>722</v>
+      </c>
+      <c r="C126" t="s">
+        <v>767</v>
+      </c>
+      <c r="D126" t="s">
+        <v>725</v>
+      </c>
+      <c r="E126">
         <v>448</v>
       </c>
-      <c r="B103" t="s">
+      <c r="F126" t="s">
+        <v>725</v>
+      </c>
+      <c r="G126" t="s">
+        <v>674</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>747</v>
+      </c>
+      <c r="B127" t="str">
+        <f ca="1">Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
+        <v>ObsPartnerScreening.LivingWithClient</v>
+      </c>
+      <c r="C127" t="s">
+        <v>501</v>
+      </c>
+      <c r="D127" t="s">
+        <v>42</v>
+      </c>
+      <c r="E127">
         <v>449</v>
       </c>
-      <c r="C103" t="s">
-        <v>56</v>
-      </c>
-      <c r="D103" t="s">
-        <v>56</v>
-      </c>
-      <c r="E103">
-        <v>16</v>
-      </c>
-      <c r="F103" t="s">
-        <v>56</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="F127" t="s">
+        <v>41</v>
+      </c>
+      <c r="G127" t="s">
+        <v>675</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>748</v>
+      </c>
+      <c r="B128" t="str">
+        <f ca="1">Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
+        <v>ObsPartnerScreening.LivingWithClient</v>
+      </c>
+      <c r="C128" t="s">
+        <v>775</v>
+      </c>
+      <c r="D128" t="s">
+        <v>50</v>
+      </c>
+      <c r="E128">
         <v>450</v>
       </c>
-      <c r="B104" t="s">
-        <v>449</v>
-      </c>
-      <c r="C104" t="s">
-        <v>451</v>
-      </c>
-      <c r="D104" t="s">
-        <v>451</v>
-      </c>
-      <c r="E104">
-        <v>17</v>
-      </c>
-      <c r="F104" t="s">
-        <v>451</v>
-      </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>339</v>
+      <c r="F128" t="s">
+        <v>50</v>
+      </c>
+      <c r="G128" t="s">
+        <v>675</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>749</v>
+      </c>
+      <c r="B129" t="str">
+        <f ca="1">Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
+        <v>ObsPartnerScreening.LivingWithClient</v>
+      </c>
+      <c r="C129" t="s">
+        <v>503</v>
+      </c>
+      <c r="D129" t="s">
+        <v>45</v>
+      </c>
+      <c r="E129">
+        <v>468</v>
+      </c>
+      <c r="F129" t="s">
+        <v>44</v>
+      </c>
+      <c r="G129" t="s">
+        <v>675</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>785</v>
+      </c>
+      <c r="B130" t="s">
+        <v>726</v>
+      </c>
+      <c r="C130" t="s">
+        <v>492</v>
+      </c>
+      <c r="D130" t="s">
+        <v>109</v>
+      </c>
+      <c r="E130">
+        <v>452</v>
+      </c>
+      <c r="F130" t="s">
+        <v>727</v>
+      </c>
+      <c r="G130" t="s">
+        <v>676</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>786</v>
+      </c>
+      <c r="B131" t="s">
+        <v>726</v>
+      </c>
+      <c r="C131" t="s">
+        <v>495</v>
+      </c>
+      <c r="D131" t="s">
+        <v>107</v>
+      </c>
+      <c r="E131">
+        <v>453</v>
+      </c>
+      <c r="F131" t="s">
+        <v>728</v>
+      </c>
+      <c r="G131" t="s">
+        <v>676</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>787</v>
+      </c>
+      <c r="B132" t="s">
+        <v>726</v>
+      </c>
+      <c r="C132" t="s">
+        <v>781</v>
+      </c>
+      <c r="D132" t="s">
+        <v>141</v>
+      </c>
+      <c r="E132">
+        <v>454</v>
+      </c>
+      <c r="F132" t="s">
+        <v>141</v>
+      </c>
+      <c r="G132" t="s">
+        <v>676</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>800</v>
+      </c>
+      <c r="B133" t="s">
+        <v>729</v>
+      </c>
+      <c r="C133" t="s">
+        <v>792</v>
+      </c>
+      <c r="D133" t="s">
+        <v>789</v>
+      </c>
+      <c r="E133">
+        <v>455</v>
+      </c>
+      <c r="F133" t="s">
+        <v>730</v>
+      </c>
+      <c r="G133" t="s">
+        <v>677</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>801</v>
+      </c>
+      <c r="B134" t="s">
+        <v>729</v>
+      </c>
+      <c r="C134" t="s">
+        <v>793</v>
+      </c>
+      <c r="D134" t="s">
+        <v>50</v>
+      </c>
+      <c r="E134">
+        <v>456</v>
+      </c>
+      <c r="F134" t="s">
+        <v>731</v>
+      </c>
+      <c r="G134" t="s">
+        <v>677</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>802</v>
+      </c>
+      <c r="B135" t="s">
+        <v>729</v>
+      </c>
+      <c r="C135" t="s">
+        <v>794</v>
+      </c>
+      <c r="D135" t="s">
+        <v>790</v>
+      </c>
+      <c r="E135">
+        <v>457</v>
+      </c>
+      <c r="F135" t="s">
+        <v>732</v>
+      </c>
+      <c r="G135" t="s">
+        <v>677</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>803</v>
+      </c>
+      <c r="B136" t="s">
+        <v>729</v>
+      </c>
+      <c r="C136" t="s">
+        <v>795</v>
+      </c>
+      <c r="D136" t="s">
+        <v>791</v>
+      </c>
+      <c r="E136">
+        <v>458</v>
+      </c>
+      <c r="F136" t="s">
+        <v>733</v>
+      </c>
+      <c r="G136" t="s">
+        <v>677</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>804</v>
+      </c>
+      <c r="B137" t="str">
+        <f ca="1">Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
+        <v>ObsPartnerTraceResult.Consent</v>
+      </c>
+      <c r="C137" t="s">
+        <v>501</v>
+      </c>
+      <c r="D137" t="s">
+        <v>42</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137" t="s">
+        <v>42</v>
+      </c>
+      <c r="G137" t="s">
+        <v>702</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>805</v>
+      </c>
+      <c r="B138" t="str">
+        <f ca="1">Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
+        <v>ObsPartnerTraceResult.Consent</v>
+      </c>
+      <c r="C138" t="s">
+        <v>503</v>
+      </c>
+      <c r="D138" t="s">
+        <v>45</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138" t="s">
+        <v>45</v>
+      </c>
+      <c r="G138" t="s">
+        <v>702</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>806</v>
+      </c>
+      <c r="B139" t="s">
+        <v>813</v>
+      </c>
+      <c r="C139" t="s">
+        <v>124</v>
+      </c>
+      <c r="D139" t="s">
+        <v>125</v>
+      </c>
+      <c r="E139">
+        <v>348</v>
+      </c>
+      <c r="F139" t="s">
+        <v>812</v>
+      </c>
+      <c r="G139" t="s">
+        <v>700</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>807</v>
+      </c>
+      <c r="B140" t="s">
+        <v>813</v>
+      </c>
+      <c r="C140" t="s">
+        <v>130</v>
+      </c>
+      <c r="D140" t="s">
+        <v>132</v>
+      </c>
+      <c r="E140">
+        <v>349</v>
+      </c>
+      <c r="F140" t="s">
+        <v>132</v>
+      </c>
+      <c r="G140" t="s">
+        <v>700</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>808</v>
+      </c>
+      <c r="B141" t="s">
+        <v>814</v>
+      </c>
+      <c r="C141" t="s">
+        <v>133</v>
+      </c>
+      <c r="D141" t="s">
+        <v>135</v>
+      </c>
+      <c r="E141">
+        <v>408</v>
+      </c>
+      <c r="F141" t="s">
+        <v>135</v>
+      </c>
+      <c r="G141" t="s">
+        <v>701</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>809</v>
+      </c>
+      <c r="B142" t="s">
+        <v>814</v>
+      </c>
+      <c r="C142" t="s">
+        <v>136</v>
+      </c>
+      <c r="D142" t="s">
+        <v>138</v>
+      </c>
+      <c r="E142">
+        <v>409</v>
+      </c>
+      <c r="F142" t="s">
+        <v>138</v>
+      </c>
+      <c r="G142" t="s">
+        <v>701</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>810</v>
+      </c>
+      <c r="B143" t="s">
+        <v>844</v>
+      </c>
+      <c r="C143" t="s">
+        <v>501</v>
+      </c>
+      <c r="D143" t="s">
+        <v>42</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143" t="s">
+        <v>42</v>
+      </c>
+      <c r="G143" t="s">
+        <v>832</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>836</v>
+      </c>
+      <c r="B144" t="s">
+        <v>844</v>
+      </c>
+      <c r="C144" t="s">
+        <v>503</v>
+      </c>
+      <c r="D144" t="s">
+        <v>45</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144" t="s">
+        <v>45</v>
+      </c>
+      <c r="G144" t="s">
+        <v>832</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>837</v>
+      </c>
+      <c r="B145" t="s">
+        <v>855</v>
+      </c>
+      <c r="C145" t="s">
+        <v>108</v>
+      </c>
+      <c r="D145" t="s">
+        <v>59</v>
+      </c>
+      <c r="E145">
+        <v>340</v>
+      </c>
+      <c r="F145" t="s">
+        <v>845</v>
+      </c>
+      <c r="G145" t="s">
+        <v>831</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>838</v>
+      </c>
+      <c r="B146" t="s">
+        <v>855</v>
+      </c>
+      <c r="C146" t="s">
+        <v>106</v>
+      </c>
+      <c r="D146" t="s">
+        <v>44</v>
+      </c>
+      <c r="E146">
+        <v>341</v>
+      </c>
+      <c r="F146" t="s">
+        <v>44</v>
+      </c>
+      <c r="G146" t="s">
+        <v>831</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>839</v>
+      </c>
+      <c r="B147" t="s">
+        <v>855</v>
+      </c>
+      <c r="C147" t="s">
+        <v>142</v>
+      </c>
+      <c r="D147" t="s">
+        <v>143</v>
+      </c>
+      <c r="E147">
+        <v>342</v>
+      </c>
+      <c r="F147" t="s">
+        <v>143</v>
+      </c>
+      <c r="G147" t="s">
+        <v>831</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>840</v>
+      </c>
+      <c r="B148" t="s">
+        <v>855</v>
+      </c>
+      <c r="C148" t="s">
+        <v>139</v>
+      </c>
+      <c r="D148" t="s">
+        <v>140</v>
+      </c>
+      <c r="E148">
+        <v>343</v>
+      </c>
+      <c r="F148" t="s">
+        <v>846</v>
+      </c>
+      <c r="G148" t="s">
+        <v>831</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>841</v>
+      </c>
+      <c r="B149" t="str">
+        <f ca="1">Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
+        <v>ObsPartnerTraceResult.Consent</v>
+      </c>
+      <c r="C149" t="s">
+        <v>501</v>
+      </c>
+      <c r="D149" t="s">
+        <v>42</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149" t="s">
+        <v>42</v>
+      </c>
+      <c r="G149" t="s">
+        <v>860</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>842</v>
+      </c>
+      <c r="B150" t="str">
+        <f ca="1">Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
+        <v>ObsPartnerTraceResult.Consent</v>
+      </c>
+      <c r="C150" t="s">
+        <v>503</v>
+      </c>
+      <c r="D150" t="s">
+        <v>45</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150" t="s">
+        <v>45</v>
+      </c>
+      <c r="G150" t="s">
+        <v>860</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>843</v>
+      </c>
+      <c r="B151" t="s">
+        <v>862</v>
+      </c>
+      <c r="C151" t="s">
+        <v>124</v>
+      </c>
+      <c r="D151" t="s">
+        <v>125</v>
+      </c>
+      <c r="E151">
+        <v>348</v>
+      </c>
+      <c r="F151" t="s">
+        <v>812</v>
+      </c>
+      <c r="G151" t="s">
+        <v>700</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>864</v>
+      </c>
+      <c r="B152" t="s">
+        <v>862</v>
+      </c>
+      <c r="C152" t="s">
+        <v>130</v>
+      </c>
+      <c r="D152" t="s">
+        <v>132</v>
+      </c>
+      <c r="E152">
+        <v>349</v>
+      </c>
+      <c r="F152" t="s">
+        <v>132</v>
+      </c>
+      <c r="G152" t="s">
+        <v>700</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>865</v>
+      </c>
+      <c r="B153" t="s">
+        <v>863</v>
+      </c>
+      <c r="C153" t="s">
+        <v>133</v>
+      </c>
+      <c r="D153" t="s">
+        <v>135</v>
+      </c>
+      <c r="E153">
+        <v>347</v>
+      </c>
+      <c r="F153" t="s">
+        <v>135</v>
+      </c>
+      <c r="G153" t="s">
+        <v>858</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>866</v>
+      </c>
+      <c r="B154" t="s">
+        <v>863</v>
+      </c>
+      <c r="C154" t="s">
+        <v>136</v>
+      </c>
+      <c r="D154" t="s">
+        <v>138</v>
+      </c>
+      <c r="E154">
+        <v>346</v>
+      </c>
+      <c r="F154" t="s">
+        <v>138</v>
+      </c>
+      <c r="G154" t="s">
+        <v>858</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>867</v>
+      </c>
+      <c r="L155" t="str">
+        <f>Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
+        <v>3618c426-005f-11e8-aa69-0ed5f89f718b.</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J156" s="1"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J157" s="1"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J158" s="1"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J159" s="1"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>856</v>
+      </c>
+      <c r="B160" t="s">
+        <v>367</v>
+      </c>
+      <c r="J160" s="1"/>
+      <c r="L160" t="str">
+        <f>Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
+        <v>ObsFamilyTraceResult.Outcome</v>
       </c>
     </row>
   </sheetData>

--- a/Templates/BluePrint.xlsx
+++ b/Templates/BluePrint.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="8" xr2:uid="{791BE3AC-23BD-49AA-B912-E6D81B31C45D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" firstSheet="1" activeTab="3" xr2:uid="{791BE3AC-23BD-49AA-B912-E6D81B31C45D}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="870">
   <si>
     <t>Id</t>
   </si>
@@ -2636,13 +2636,19 @@
   </si>
   <si>
     <t>3618c426-005f-11e8-aa69-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>ObsFamilyTraceResult.Consent</t>
+  </si>
+  <si>
+    <t>ObsPartnerTraceResult</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2658,15 +2664,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2682,6 +2695,17 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2709,21 +2733,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -3107,6 +3139,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
@@ -3947,9 +3982,15 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEDBDBB1-696E-4C9B-97AB-DE7134839E13}" name="Table3" displayName="Table3" ref="A1:F103" totalsRowShown="0">
-  <autoFilter ref="A1:F103" xr:uid="{84FEA0B4-A9BF-4B69-85A4-909D8E0F0399}"/>
+  <autoFilter ref="A1:F103" xr:uid="{84FEA0B4-A9BF-4B69-85A4-909D8E0F0399}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="a374d85a-0057-11e8-ba89-0ed5f89f718b"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{71454204-02BD-42C9-A4B0-95CEF3908533}" name="Id" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{71454204-02BD-42C9-A4B0-95CEF3908533}" name="Id" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{7343898D-6013-46B5-9B44-FCBD544124B4}" name="CategoryId"/>
     <tableColumn id="3" xr3:uid="{8641924C-BEF2-422E-AC00-93E3172238DA}" name="ItemId"/>
     <tableColumn id="4" xr3:uid="{E28D8243-75A8-4C3B-93A1-B3625A1BBDDF}" name="Display"/>
@@ -4009,8 +4050,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{87B17825-EC5C-4480-A566-6C034FCA05E3}" name="Table7" displayName="Table7" ref="A1:L52" totalsRowShown="0">
-  <autoFilter ref="A1:L52" xr:uid="{ACC6EB24-3A38-4B9D-B8B7-15B6862DD7D1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{87B17825-EC5C-4480-A566-6C034FCA05E3}" name="Table7" displayName="Table7" ref="A1:L73" totalsRowShown="0">
+  <autoFilter ref="A1:L73" xr:uid="{ACC6EB24-3A38-4B9D-B8B7-15B6862DD7D1}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="ObsPartnerTraceResult"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{80C1A31B-4904-4DB0-94C4-0F3EB40A50F0}" name="Id"/>
     <tableColumn id="2" xr3:uid="{F54E4B7D-BE1A-4050-A714-DE4A799489AB}" name="Name"/>
@@ -4023,7 +4070,7 @@
     <tableColumn id="9" xr3:uid="{6E169087-04F1-4153-BDD3-5500FDA40A96}" name="Mode"/>
     <tableColumn id="10" xr3:uid="{32051A01-4894-4098-837C-D587A9F4F244}" name="SectionId"/>
     <tableColumn id="11" xr3:uid="{6657B025-DB2C-4AE9-8C68-5FED63288F27}" name="FormId"/>
-    <tableColumn id="12" xr3:uid="{A2FF5254-6586-4B26-BDB2-69D296F80B85}" name="SubscriberSystemId" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{A2FF5254-6586-4B26-BDB2-69D296F80B85}" name="SubscriberSystemId" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4031,7 +4078,14 @@
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A0E0B7B2-60E0-4321-9F99-B5CC3BA9D435}" name="Table8" displayName="Table8" ref="A1:J164" totalsRowShown="0">
-  <autoFilter ref="A1:J164" xr:uid="{7CED72B2-1C8A-4293-A47D-A3D1B4C414DF}"/>
+  <autoFilter ref="A1:J164" xr:uid="{7CED72B2-1C8A-4293-A47D-A3D1B4C414DF}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="ObsFamilyTraceResult.Outcome"/>
+        <filter val="ObsPartnerTraceResult.Outcome"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{4EE1E66C-C80B-4D15-BE74-D2E68C9AAE00}" name="Id"/>
     <tableColumn id="2" xr3:uid="{049FA3B1-1684-4470-969F-50EEAE61C171}" name="Ref"/>
@@ -4348,7 +4402,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4546,99 +4600,101 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="7" t="s">
         <v>850</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="7" t="s">
         <v>849</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4654,8 +4710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653D79A3-EC80-4356-84E3-20C62774D17E}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:B38"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5464,212 +5520,212 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="8" t="s">
         <v>765</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="8" t="s">
         <v>724</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="8" t="s">
         <v>767</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="8" t="s">
         <v>725</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5691,8 +5747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52A5372-DBEB-41B6-A81E-D35450DBEA56}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D99" sqref="D96:D99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5724,7 +5780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>184</v>
       </c>
@@ -5741,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>185</v>
       </c>
@@ -5758,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>186</v>
       </c>
@@ -5775,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>187</v>
       </c>
@@ -5792,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -5809,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>189</v>
       </c>
@@ -5826,7 +5882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>190</v>
       </c>
@@ -5843,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>191</v>
       </c>
@@ -5860,7 +5916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>192</v>
       </c>
@@ -5877,7 +5933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -5894,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>194</v>
       </c>
@@ -5911,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>195</v>
       </c>
@@ -5928,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>196</v>
       </c>
@@ -5945,7 +6001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>197</v>
       </c>
@@ -5962,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>198</v>
       </c>
@@ -5979,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -5996,7 +6052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>200</v>
       </c>
@@ -6013,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>201</v>
       </c>
@@ -6030,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>202</v>
       </c>
@@ -6047,7 +6103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>203</v>
       </c>
@@ -6064,7 +6120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>204</v>
       </c>
@@ -6081,7 +6137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>205</v>
       </c>
@@ -6098,7 +6154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>206</v>
       </c>
@@ -6115,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>207</v>
       </c>
@@ -6132,7 +6188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>208</v>
       </c>
@@ -6149,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>209</v>
       </c>
@@ -6166,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>210</v>
       </c>
@@ -6183,7 +6239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>211</v>
       </c>
@@ -6200,7 +6256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>212</v>
       </c>
@@ -6217,7 +6273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>213</v>
       </c>
@@ -6234,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>214</v>
       </c>
@@ -6251,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>215</v>
       </c>
@@ -6268,7 +6324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>216</v>
       </c>
@@ -6285,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>217</v>
       </c>
@@ -6302,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>218</v>
       </c>
@@ -6319,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>219</v>
       </c>
@@ -6336,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>220</v>
       </c>
@@ -6353,7 +6409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>221</v>
       </c>
@@ -6370,7 +6426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>222</v>
       </c>
@@ -6387,7 +6443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>223</v>
       </c>
@@ -6404,7 +6460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>224</v>
       </c>
@@ -6421,7 +6477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>225</v>
       </c>
@@ -6438,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>226</v>
       </c>
@@ -6455,7 +6511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>227</v>
       </c>
@@ -6472,7 +6528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>228</v>
       </c>
@@ -6489,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>229</v>
       </c>
@@ -6506,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>230</v>
       </c>
@@ -6523,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>231</v>
       </c>
@@ -6540,7 +6596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>232</v>
       </c>
@@ -6557,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>233</v>
       </c>
@@ -6574,7 +6630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>234</v>
       </c>
@@ -6591,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>235</v>
       </c>
@@ -6608,7 +6664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>236</v>
       </c>
@@ -6625,7 +6681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>237</v>
       </c>
@@ -6642,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>238</v>
       </c>
@@ -6659,7 +6715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>239</v>
       </c>
@@ -6676,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>240</v>
       </c>
@@ -6693,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>241</v>
       </c>
@@ -6710,7 +6766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>242</v>
       </c>
@@ -6727,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>243</v>
       </c>
@@ -6744,7 +6800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>244</v>
       </c>
@@ -6761,7 +6817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>245</v>
       </c>
@@ -6778,7 +6834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>246</v>
       </c>
@@ -6795,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>247</v>
       </c>
@@ -6812,7 +6868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>248</v>
       </c>
@@ -6829,7 +6885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>249</v>
       </c>
@@ -6846,7 +6902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>250</v>
       </c>
@@ -6863,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>251</v>
       </c>
@@ -6880,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>252</v>
       </c>
@@ -6897,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>253</v>
       </c>
@@ -6914,7 +6970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>254</v>
       </c>
@@ -6931,7 +6987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>255</v>
       </c>
@@ -6948,386 +7004,403 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D74" s="6"/>
+      <c r="E74" s="6">
+        <v>1</v>
+      </c>
+      <c r="F74" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4">
+      <c r="D75" s="6"/>
+      <c r="E75" s="6">
         <v>2</v>
       </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4">
+      <c r="D76" s="6"/>
+      <c r="E76" s="6">
         <v>3</v>
       </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4">
+      <c r="D77" s="6"/>
+      <c r="E77" s="6">
         <v>4</v>
       </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4">
+      <c r="D78" s="6"/>
+      <c r="E78" s="6">
         <v>5</v>
       </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="F78" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="D79" s="6"/>
+      <c r="E79" s="6">
+        <v>1</v>
+      </c>
+      <c r="F79" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="E80">
+      <c r="D80" s="6"/>
+      <c r="E80" s="6">
         <v>2</v>
       </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="F80" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="E81">
+      <c r="D81" s="6"/>
+      <c r="E81" s="6">
         <v>3</v>
       </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="F81" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="E82">
+      <c r="D82" s="6"/>
+      <c r="E82" s="6">
         <v>4</v>
       </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="F82" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="E83">
+      <c r="D83" s="6"/>
+      <c r="E83" s="6">
         <v>5</v>
       </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="F83" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="D84" s="6"/>
+      <c r="E84" s="6">
+        <v>1</v>
+      </c>
+      <c r="F84" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E85">
+      <c r="D85" s="6"/>
+      <c r="E85" s="6">
         <v>2</v>
       </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="F85" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="E86">
+      <c r="D86" s="6"/>
+      <c r="E86" s="6">
         <v>3</v>
       </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="F86" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="D87" s="6"/>
+      <c r="E87" s="6">
+        <v>1</v>
+      </c>
+      <c r="F87" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="E88">
+      <c r="D88" s="6"/>
+      <c r="E88" s="6">
         <v>2</v>
       </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="F88" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="E89">
+      <c r="D89" s="6"/>
+      <c r="E89" s="6">
         <v>3</v>
       </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="F89" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="D90" s="6"/>
+      <c r="E90" s="6">
+        <v>1</v>
+      </c>
+      <c r="F90" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="E91">
+      <c r="D91" s="6"/>
+      <c r="E91" s="6">
         <v>2</v>
       </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="F91" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="E92">
+      <c r="D92" s="6"/>
+      <c r="E92" s="6">
         <v>3</v>
       </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="F92" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="E93">
+      <c r="D93" s="6"/>
+      <c r="E93" s="6">
         <v>4</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-      <c r="F94">
+      <c r="D94" s="6"/>
+      <c r="E94" s="6">
+        <v>1</v>
+      </c>
+      <c r="F94" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="5" t="s">
         <v>848</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E95">
+      <c r="D95" s="6"/>
+      <c r="E95" s="6">
         <v>2</v>
       </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>851</v>
       </c>
@@ -7347,7 +7420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>852</v>
       </c>
@@ -7367,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>853</v>
       </c>
@@ -7387,7 +7460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>854</v>
       </c>
@@ -7407,16 +7480,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
     </row>
   </sheetData>
@@ -7431,7 +7504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A55CE3-7193-4139-8E44-446AA7F6201C}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7830,7 +7903,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8505,16 +8578,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42808880-C2B9-4DC7-82E0-A8AF856DED1E}">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59.7109375" bestFit="1" customWidth="1"/>
@@ -8565,7 +8638,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>334</v>
       </c>
@@ -8597,7 +8670,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>340</v>
       </c>
@@ -8629,7 +8702,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>344</v>
       </c>
@@ -8661,7 +8734,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>347</v>
       </c>
@@ -8693,7 +8766,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>350</v>
       </c>
@@ -8725,7 +8798,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -8757,7 +8830,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>356</v>
       </c>
@@ -8789,7 +8862,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>359</v>
       </c>
@@ -8821,7 +8894,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>360</v>
       </c>
@@ -8859,7 +8932,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>364</v>
       </c>
@@ -8897,7 +8970,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>366</v>
       </c>
@@ -8935,7 +9008,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>369</v>
       </c>
@@ -8973,7 +9046,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>374</v>
       </c>
@@ -9011,7 +9084,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>377</v>
       </c>
@@ -9049,7 +9122,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>380</v>
       </c>
@@ -9087,7 +9160,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>383</v>
       </c>
@@ -9125,7 +9198,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>386</v>
       </c>
@@ -9163,7 +9236,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>388</v>
       </c>
@@ -9201,7 +9274,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>390</v>
       </c>
@@ -9239,7 +9312,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>392</v>
       </c>
@@ -9268,7 +9341,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>398</v>
       </c>
@@ -9297,7 +9370,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>401</v>
       </c>
@@ -9326,7 +9399,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>403</v>
       </c>
@@ -9355,7 +9428,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>406</v>
       </c>
@@ -9384,7 +9457,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>409</v>
       </c>
@@ -9413,7 +9486,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>412</v>
       </c>
@@ -9442,7 +9515,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>415</v>
       </c>
@@ -9471,7 +9544,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>418</v>
       </c>
@@ -9500,7 +9573,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>421</v>
       </c>
@@ -9529,7 +9602,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>424</v>
       </c>
@@ -9561,7 +9634,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>427</v>
       </c>
@@ -9593,7 +9666,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>429</v>
       </c>
@@ -9625,7 +9698,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>432</v>
       </c>
@@ -9657,7 +9730,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>435</v>
       </c>
@@ -9689,7 +9762,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>438</v>
       </c>
@@ -9721,7 +9794,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>441</v>
       </c>
@@ -9753,7 +9826,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>390</v>
       </c>
@@ -9791,7 +9864,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>390</v>
       </c>
@@ -9829,7 +9902,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>662</v>
       </c>
@@ -9861,934 +9934,966 @@
         <v>339</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="6">
         <v>7</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="6">
         <v>76</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="6">
         <v>1016</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="L41" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="6">
         <v>7</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="6">
         <v>76</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="6">
         <v>1016</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="L42" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="6">
         <v>7</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="6">
         <v>76</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="6">
         <v>1016</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="L43" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="6">
         <v>7</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="6">
         <v>76</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="6">
         <v>1016</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="L44" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="6">
         <v>7</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="6">
         <v>76</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="6">
         <v>1016</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="L45" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="6">
         <v>7</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="6">
         <v>76</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="6">
         <v>1016</v>
       </c>
-      <c r="L46" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="L46" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="6">
         <v>7</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="6">
         <v>76</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="6">
         <v>1016</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="L47" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="6">
         <v>7</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="6">
         <v>77</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="6">
         <v>1016</v>
       </c>
-      <c r="L48" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="L48" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="6">
         <v>7</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="6">
         <v>77</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="6">
         <v>1016</v>
       </c>
-      <c r="L49" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="L49" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="6">
         <v>7</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="6">
         <v>77</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="6">
         <v>1016</v>
       </c>
-      <c r="L50" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="L50" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="6">
         <v>7</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="6">
         <v>77</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="6">
         <v>1016</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="L51" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="6">
         <v>7</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="6">
         <v>77</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="6">
         <v>1016</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="L52" s="5" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="B53" t="s">
-        <v>361</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B53" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="6">
         <v>8</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="6">
         <v>72</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="6">
         <v>1013</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="L53" s="5" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="B54" t="s">
-        <v>361</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B54" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="6">
         <v>8</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="6">
         <v>72</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="6">
         <v>1013</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="L54" s="5" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="B55" t="s">
-        <v>361</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B55" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="6">
         <v>8</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="6">
         <v>72</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="6">
         <v>1013</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="L55" s="5" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="B56" t="s">
-        <v>361</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B56" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="E56" t="s">
+      <c r="D56" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="6">
         <v>8</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="6">
         <v>72</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="6">
         <v>1013</v>
       </c>
-      <c r="L56" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L56" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="6">
         <v>9</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="6">
         <v>62</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="6">
         <v>1012</v>
       </c>
-      <c r="L58" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="L58" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="6">
         <v>9</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="6">
         <v>62</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="6">
         <v>1012</v>
       </c>
-      <c r="L59" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="L59" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="6">
         <v>9</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I60" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="6">
         <v>62</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="6">
         <v>1012</v>
       </c>
-      <c r="L60" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="L60" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="6" t="s">
         <v>834</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>835</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="6">
         <v>9</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I61" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="6">
         <v>62</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="6">
         <v>1012</v>
       </c>
-      <c r="L61" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L61" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>822</v>
       </c>
       <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="11" t="s">
         <v>856</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="J64">
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6">
         <v>63</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="6">
         <v>1013</v>
       </c>
-      <c r="L64" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="L64" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="11" t="s">
         <v>856</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="6" t="s">
         <v>858</v>
       </c>
-      <c r="J65">
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6">
         <v>63</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="6">
         <v>1013</v>
       </c>
-      <c r="L65" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="L65" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="11" t="s">
         <v>856</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="6" t="s">
         <v>861</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="6" t="s">
         <v>859</v>
       </c>
-      <c r="J66">
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6">
         <v>63</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="6">
         <v>1013</v>
       </c>
-      <c r="L66" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="L66" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="11" t="s">
         <v>856</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="6" t="s">
         <v>860</v>
       </c>
-      <c r="J67">
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6">
         <v>63</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="6">
         <v>1013</v>
       </c>
-      <c r="L67" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="L67" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
         <v>827</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="11" t="s">
         <v>856</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="J68">
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6">
         <v>63</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="6">
         <v>1013</v>
       </c>
-      <c r="L68" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L68" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>828</v>
       </c>
       <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>829</v>
       </c>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L73" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10801,10 +10906,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9EDC7D2-F164-4AF1-BE00-B6B43F85EA47}">
-  <dimension ref="A1:L160"/>
+  <dimension ref="A1:L164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152:A155"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10853,7 +10958,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>448</v>
       </c>
@@ -10882,7 +10987,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>450</v>
       </c>
@@ -10911,7 +11016,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>452</v>
       </c>
@@ -10940,7 +11045,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>455</v>
       </c>
@@ -10969,7 +11074,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>459</v>
       </c>
@@ -10998,7 +11103,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>462</v>
       </c>
@@ -11027,7 +11132,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>464</v>
       </c>
@@ -11056,7 +11161,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>467</v>
       </c>
@@ -11085,7 +11190,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>470</v>
       </c>
@@ -11114,7 +11219,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>471</v>
       </c>
@@ -11143,7 +11248,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>473</v>
       </c>
@@ -11175,7 +11280,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>475</v>
       </c>
@@ -11207,7 +11312,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>476</v>
       </c>
@@ -11239,7 +11344,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>477</v>
       </c>
@@ -11271,7 +11376,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>479</v>
       </c>
@@ -11303,7 +11408,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>480</v>
       </c>
@@ -11335,7 +11440,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>483</v>
       </c>
@@ -11367,7 +11472,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>484</v>
       </c>
@@ -11399,7 +11504,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>486</v>
       </c>
@@ -11431,7 +11536,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>487</v>
       </c>
@@ -11463,7 +11568,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>489</v>
       </c>
@@ -11495,7 +11600,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>490</v>
       </c>
@@ -11527,7 +11632,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>493</v>
       </c>
@@ -11559,7 +11664,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>494</v>
       </c>
@@ -11591,7 +11696,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>496</v>
       </c>
@@ -11623,7 +11728,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>497</v>
       </c>
@@ -11655,7 +11760,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>499</v>
       </c>
@@ -11687,7 +11792,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>500</v>
       </c>
@@ -11719,7 +11824,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>502</v>
       </c>
@@ -11751,7 +11856,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>504</v>
       </c>
@@ -11783,7 +11888,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>505</v>
       </c>
@@ -11815,7 +11920,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>506</v>
       </c>
@@ -11847,7 +11952,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>508</v>
       </c>
@@ -11879,7 +11984,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>510</v>
       </c>
@@ -11911,7 +12016,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>512</v>
       </c>
@@ -11943,7 +12048,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>514</v>
       </c>
@@ -11975,7 +12080,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>516</v>
       </c>
@@ -12007,7 +12112,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>518</v>
       </c>
@@ -12039,7 +12144,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>521</v>
       </c>
@@ -12071,7 +12176,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>524</v>
       </c>
@@ -12103,7 +12208,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>527</v>
       </c>
@@ -12135,7 +12240,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>530</v>
       </c>
@@ -12167,7 +12272,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>533</v>
       </c>
@@ -12199,7 +12304,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>536</v>
       </c>
@@ -12231,7 +12336,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>539</v>
       </c>
@@ -12263,7 +12368,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>542</v>
       </c>
@@ -12295,7 +12400,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>545</v>
       </c>
@@ -12327,7 +12432,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>548</v>
       </c>
@@ -12359,7 +12464,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>551</v>
       </c>
@@ -12391,7 +12496,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>554</v>
       </c>
@@ -12423,7 +12528,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>556</v>
       </c>
@@ -12455,7 +12560,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>558</v>
       </c>
@@ -12487,7 +12592,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>560</v>
       </c>
@@ -12519,7 +12624,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>562</v>
       </c>
@@ -12551,7 +12656,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>564</v>
       </c>
@@ -12583,7 +12688,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>566</v>
       </c>
@@ -12615,7 +12720,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>568</v>
       </c>
@@ -12647,7 +12752,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>570</v>
       </c>
@@ -12679,7 +12784,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>572</v>
       </c>
@@ -12711,7 +12816,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>574</v>
       </c>
@@ -12743,7 +12848,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>576</v>
       </c>
@@ -12775,7 +12880,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>578</v>
       </c>
@@ -12807,7 +12912,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>580</v>
       </c>
@@ -12839,7 +12944,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>582</v>
       </c>
@@ -12871,7 +12976,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>584</v>
       </c>
@@ -12903,7 +13008,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>586</v>
       </c>
@@ -12935,7 +13040,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>588</v>
       </c>
@@ -12967,7 +13072,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>590</v>
       </c>
@@ -12999,7 +13104,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>592</v>
       </c>
@@ -13031,7 +13136,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>593</v>
       </c>
@@ -13063,7 +13168,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>594</v>
       </c>
@@ -13095,7 +13200,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>596</v>
       </c>
@@ -13127,7 +13232,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>597</v>
       </c>
@@ -13159,7 +13264,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>598</v>
       </c>
@@ -13191,7 +13296,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>600</v>
       </c>
@@ -13223,7 +13328,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>601</v>
       </c>
@@ -13255,7 +13360,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>602</v>
       </c>
@@ -13287,7 +13392,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>604</v>
       </c>
@@ -13319,7 +13424,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>605</v>
       </c>
@@ -13351,7 +13456,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>607</v>
       </c>
@@ -13383,7 +13488,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>609</v>
       </c>
@@ -13415,7 +13520,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>610</v>
       </c>
@@ -13447,7 +13552,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>612</v>
       </c>
@@ -13479,7 +13584,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>613</v>
       </c>
@@ -13511,7 +13616,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>614</v>
       </c>
@@ -13543,7 +13648,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>619</v>
       </c>
@@ -13575,7 +13680,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>622</v>
       </c>
@@ -13607,7 +13712,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>624</v>
       </c>
@@ -13639,7 +13744,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>628</v>
       </c>
@@ -13671,7 +13776,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>629</v>
       </c>
@@ -13703,7 +13808,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>633</v>
       </c>
@@ -13729,7 +13834,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>634</v>
       </c>
@@ -13761,7 +13866,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>636</v>
       </c>
@@ -13793,7 +13898,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>637</v>
       </c>
@@ -13819,7 +13924,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>638</v>
       </c>
@@ -13845,7 +13950,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>640</v>
       </c>
@@ -13877,7 +13982,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>643</v>
       </c>
@@ -13909,7 +14014,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>645</v>
       </c>
@@ -13941,7 +14046,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>648</v>
       </c>
@@ -13973,7 +14078,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>650</v>
       </c>
@@ -14005,7 +14110,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>652</v>
       </c>
@@ -14037,7 +14142,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>654</v>
       </c>
@@ -14069,7 +14174,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>657</v>
       </c>
@@ -14101,7 +14206,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -14113,35 +14218,35 @@
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E106">
-        <v>1</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="E106" s="6">
+        <v>1</v>
+      </c>
+      <c r="F106" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="H106">
-        <v>1</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106" s="1" t="s">
+      <c r="H106" s="6">
+        <v>1</v>
+      </c>
+      <c r="I106" s="6">
+        <v>0</v>
+      </c>
+      <c r="J106" s="5" t="s">
         <v>339</v>
       </c>
       <c r="L106" t="str">
@@ -14149,35 +14254,35 @@
         <v>d18a3ef4-004f-11e8-ba89-0ed5f89f718b.ObsPartnerScreening.PnsAccepted</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="E107" s="6">
+        <v>0</v>
+      </c>
+      <c r="F107" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="H107">
-        <v>1</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107" s="1" t="s">
+      <c r="H107" s="6">
+        <v>1</v>
+      </c>
+      <c r="I107" s="6">
+        <v>0</v>
+      </c>
+      <c r="J107" s="5" t="s">
         <v>339</v>
       </c>
       <c r="L107" t="str">
@@ -14185,35 +14290,35 @@
         <v>d18a416a-004f-11e8-ba89-0ed5f89f718b.ObsPartnerScreening.PnsAccepted</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="E108" s="6">
+        <v>1</v>
+      </c>
+      <c r="F108" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108" s="1" t="s">
+      <c r="H108" s="6">
+        <v>1</v>
+      </c>
+      <c r="I108" s="6">
+        <v>0</v>
+      </c>
+      <c r="J108" s="5" t="s">
         <v>339</v>
       </c>
       <c r="L108" t="str">
@@ -14221,35 +14326,35 @@
         <v>d18a42be-004f-11e8-ba89-0ed5f89f718b.ObsPartnerScreening.PhysicalAssult</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="E109" s="6">
+        <v>0</v>
+      </c>
+      <c r="F109" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="H109">
-        <v>1</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109" s="1" t="s">
+      <c r="H109" s="6">
+        <v>1</v>
+      </c>
+      <c r="I109" s="6">
+        <v>0</v>
+      </c>
+      <c r="J109" s="5" t="s">
         <v>339</v>
       </c>
       <c r="L109" t="str">
@@ -14257,35 +14362,35 @@
         <v>d18a43e0-004f-11e8-ba89-0ed5f89f718b.ObsPartnerScreening.PhysicalAssult</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E110">
-        <v>1</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="E110" s="7">
+        <v>1</v>
+      </c>
+      <c r="F110" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="H110">
-        <v>1</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110" s="1" t="s">
+      <c r="H110" s="7">
+        <v>1</v>
+      </c>
+      <c r="I110" s="7">
+        <v>0</v>
+      </c>
+      <c r="J110" s="12" t="s">
         <v>339</v>
       </c>
       <c r="L110" t="str">
@@ -14293,35 +14398,35 @@
         <v>d18a450c-004f-11e8-ba89-0ed5f89f718b.ObsPartnerScreening.Threatened</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111" t="s">
+      <c r="E111" s="7">
+        <v>0</v>
+      </c>
+      <c r="F111" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="H111">
-        <v>1</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111" s="1" t="s">
+      <c r="H111" s="7">
+        <v>1</v>
+      </c>
+      <c r="I111" s="7">
+        <v>0</v>
+      </c>
+      <c r="J111" s="12" t="s">
         <v>339</v>
       </c>
       <c r="L111" t="str">
@@ -14329,35 +14434,35 @@
         <v>d18a462e-004f-11e8-ba89-0ed5f89f718b.ObsPartnerScreening.Threatened</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E112">
-        <v>1</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="E112" s="6">
+        <v>1</v>
+      </c>
+      <c r="F112" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112" s="1" t="s">
+      <c r="H112" s="6">
+        <v>1</v>
+      </c>
+      <c r="I112" s="6">
+        <v>0</v>
+      </c>
+      <c r="J112" s="5" t="s">
         <v>339</v>
       </c>
       <c r="L112" t="str">
@@ -14365,35 +14470,35 @@
         <v>d18a4746-004f-11e8-ba89-0ed5f89f718b.ObsPartnerScreening.SexuallyUncomfortable</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113" t="s">
+      <c r="E113" s="6">
+        <v>0</v>
+      </c>
+      <c r="F113" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="H113">
-        <v>1</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113" s="1" t="s">
+      <c r="H113" s="6">
+        <v>1</v>
+      </c>
+      <c r="I113" s="6">
+        <v>0</v>
+      </c>
+      <c r="J113" s="5" t="s">
         <v>339</v>
       </c>
       <c r="L113" t="str">
@@ -14401,35 +14506,35 @@
         <v>d18a4ade-004f-11e8-ba89-0ed5f89f718b.ObsPartnerScreening.SexuallyUncomfortable</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="6">
         <v>436</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114" s="1" t="s">
+      <c r="H114" s="6">
+        <v>1</v>
+      </c>
+      <c r="I114" s="6">
+        <v>0</v>
+      </c>
+      <c r="J114" s="5" t="s">
         <v>339</v>
       </c>
       <c r="L114" t="str">
@@ -14437,35 +14542,35 @@
         <v>9c213e00-0051-11e8-ba89-0ed5f89f718b.ObsPartnerScreening.IPVScreening</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="6">
         <v>437</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115" s="1" t="s">
+      <c r="H115" s="6">
+        <v>1</v>
+      </c>
+      <c r="I115" s="6">
+        <v>0</v>
+      </c>
+      <c r="J115" s="5" t="s">
         <v>339</v>
       </c>
       <c r="L115" t="str">
@@ -14473,458 +14578,458 @@
         <v>9c213f72-0051-11e8-ba89-0ed5f89f718b.ObsPartnerScreening.IPVScreening</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="6">
         <v>438</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="H116" s="6">
+        <v>1</v>
+      </c>
+      <c r="I116" s="6">
+        <v>0</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D117" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="6">
         <v>439</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="H117" s="6">
+        <v>1</v>
+      </c>
+      <c r="I117" s="6">
+        <v>0</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="6">
         <v>440</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="H118">
-        <v>1</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="H118" s="6">
+        <v>1</v>
+      </c>
+      <c r="I118" s="6">
+        <v>0</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="6">
         <v>441</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="H119">
-        <v>1</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="H119" s="6">
+        <v>1</v>
+      </c>
+      <c r="I119" s="6">
+        <v>0</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D120" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="6">
         <v>442</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="H120">
-        <v>1</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="H120" s="6">
+        <v>1</v>
+      </c>
+      <c r="I120" s="6">
+        <v>0</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
         <v>741</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="6">
         <v>443</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="H121">
-        <v>1</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="H121" s="6">
+        <v>1</v>
+      </c>
+      <c r="I121" s="6">
+        <v>0</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="6">
         <v>444</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="H122" s="6">
+        <v>1</v>
+      </c>
+      <c r="I122" s="6">
+        <v>0</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="6">
         <v>445</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="H123">
-        <v>1</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="H123" s="6">
+        <v>1</v>
+      </c>
+      <c r="I123" s="6">
+        <v>0</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="6">
         <v>446</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="H124">
-        <v>1</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="H124" s="6">
+        <v>1</v>
+      </c>
+      <c r="I124" s="6">
+        <v>0</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="6">
         <v>447</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="H125">
-        <v>1</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="H125" s="6">
+        <v>1</v>
+      </c>
+      <c r="I125" s="6">
+        <v>0</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="6">
         <v>448</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="H126">
-        <v>1</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="H126" s="6">
+        <v>1</v>
+      </c>
+      <c r="I126" s="6">
+        <v>0</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="B127" t="str">
+      <c r="B127" s="6" t="str">
         <f ca="1">Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
         <v>ObsPartnerScreening.LivingWithClient</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="6">
         <v>449</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="H127">
-        <v>1</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="H127" s="6">
+        <v>1</v>
+      </c>
+      <c r="I127" s="6">
+        <v>0</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="B128" t="str">
+      <c r="B128" s="6" t="str">
         <f ca="1">Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
         <v>ObsPartnerScreening.LivingWithClient</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="6">
         <v>450</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="H128">
-        <v>1</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="H128" s="6">
+        <v>1</v>
+      </c>
+      <c r="I128" s="6">
+        <v>0</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
         <v>749</v>
       </c>
-      <c r="B129" t="str">
+      <c r="B129" s="6" t="str">
         <f ca="1">Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
         <v>ObsPartnerScreening.LivingWithClient</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="6">
         <v>468</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="H129">
-        <v>1</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H129" s="6">
+        <v>1</v>
+      </c>
+      <c r="I129" s="6">
+        <v>0</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>785</v>
       </c>
@@ -14956,7 +15061,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>786</v>
       </c>
@@ -14988,7 +15093,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>787</v>
       </c>
@@ -15020,715 +15125,713 @@
         <v>339</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="6">
         <v>455</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="H133">
-        <v>1</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="H133" s="6">
+        <v>1</v>
+      </c>
+      <c r="I133" s="6">
+        <v>0</v>
+      </c>
+      <c r="J133" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="6">
         <v>456</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="H134">
-        <v>1</v>
-      </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="H134" s="6">
+        <v>1</v>
+      </c>
+      <c r="I134" s="6">
+        <v>0</v>
+      </c>
+      <c r="J134" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="6">
         <v>457</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="H135">
-        <v>1</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="H135" s="6">
+        <v>1</v>
+      </c>
+      <c r="I135" s="6">
+        <v>0</v>
+      </c>
+      <c r="J135" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
         <v>803</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="6">
         <v>458</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="H136">
-        <v>1</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="H136" s="6">
+        <v>1</v>
+      </c>
+      <c r="I136" s="6">
+        <v>0</v>
+      </c>
+      <c r="J136" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="B137" t="str">
+      <c r="B137" s="6" t="str">
         <f ca="1">Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
         <v>ObsPartnerTraceResult.Consent</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E137">
-        <v>1</v>
-      </c>
-      <c r="F137" t="s">
+      <c r="E137" s="6">
+        <v>1</v>
+      </c>
+      <c r="F137" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="H137">
-        <v>1</v>
-      </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="H137" s="6">
+        <v>1</v>
+      </c>
+      <c r="I137" s="6">
+        <v>0</v>
+      </c>
+      <c r="J137" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="B138" t="str">
+      <c r="B138" s="6" t="str">
         <f ca="1">Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
         <v>ObsPartnerTraceResult.Consent</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138" t="s">
+      <c r="E138" s="6">
+        <v>0</v>
+      </c>
+      <c r="F138" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="H138">
-        <v>1</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="J138" s="1" t="s">
+      <c r="H138" s="6">
+        <v>1</v>
+      </c>
+      <c r="I138" s="6">
+        <v>0</v>
+      </c>
+      <c r="J138" s="5" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="6">
         <v>348</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="H139">
-        <v>1</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139" s="1" t="s">
+      <c r="H139" s="6">
+        <v>1</v>
+      </c>
+      <c r="I139" s="6">
+        <v>0</v>
+      </c>
+      <c r="J139" s="5" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="6">
         <v>349</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="H140">
-        <v>1</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="H140" s="6">
+        <v>1</v>
+      </c>
+      <c r="I140" s="6">
+        <v>0</v>
+      </c>
+      <c r="J140" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="6">
         <v>408</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="H141">
-        <v>1</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="H141" s="6">
+        <v>1</v>
+      </c>
+      <c r="I141" s="6">
+        <v>0</v>
+      </c>
+      <c r="J141" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="6">
         <v>409</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="H142">
-        <v>1</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="H142" s="6">
+        <v>1</v>
+      </c>
+      <c r="I142" s="6">
+        <v>0</v>
+      </c>
+      <c r="J142" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="6" t="s">
         <v>844</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-      <c r="F143" t="s">
+      <c r="E143" s="6">
+        <v>1</v>
+      </c>
+      <c r="F143" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="H143">
-        <v>1</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="H143" s="6">
+        <v>1</v>
+      </c>
+      <c r="I143" s="6">
+        <v>0</v>
+      </c>
+      <c r="J143" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
         <v>836</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="6" t="s">
         <v>844</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144" t="s">
+      <c r="E144" s="6">
+        <v>0</v>
+      </c>
+      <c r="F144" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="H144">
-        <v>1</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="H144" s="6">
+        <v>1</v>
+      </c>
+      <c r="I144" s="6">
+        <v>0</v>
+      </c>
+      <c r="J144" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
         <v>837</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="6" t="s">
         <v>855</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="6">
         <v>340</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="6" t="s">
         <v>845</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="H145">
-        <v>1</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="H145" s="6">
+        <v>1</v>
+      </c>
+      <c r="I145" s="6">
+        <v>0</v>
+      </c>
+      <c r="J145" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="6" t="s">
         <v>855</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="6">
         <v>341</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="H146">
-        <v>1</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="H146" s="6">
+        <v>1</v>
+      </c>
+      <c r="I146" s="6">
+        <v>0</v>
+      </c>
+      <c r="J146" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
         <v>839</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="6" t="s">
         <v>855</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="6">
         <v>342</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="H147">
-        <v>1</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="H147" s="6">
+        <v>1</v>
+      </c>
+      <c r="I147" s="6">
+        <v>0</v>
+      </c>
+      <c r="J147" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="6" t="s">
         <v>855</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="6">
         <v>343</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="6" t="s">
         <v>846</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G148" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="H148">
-        <v>1</v>
-      </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
-      <c r="J148" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="H148" s="6">
+        <v>1</v>
+      </c>
+      <c r="I148" s="6">
+        <v>0</v>
+      </c>
+      <c r="J148" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
         <v>841</v>
       </c>
-      <c r="B149" t="str">
-        <f ca="1">Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
-        <v>ObsPartnerTraceResult.Consent</v>
-      </c>
-      <c r="C149" t="s">
+      <c r="B149" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="C149" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E149">
-        <v>1</v>
-      </c>
-      <c r="F149" t="s">
+      <c r="E149" s="6">
+        <v>1</v>
+      </c>
+      <c r="F149" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G149" s="6" t="s">
         <v>860</v>
       </c>
-      <c r="H149">
-        <v>1</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="H149" s="6">
+        <v>1</v>
+      </c>
+      <c r="I149" s="6">
+        <v>0</v>
+      </c>
+      <c r="J149" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="B150" t="str">
-        <f ca="1">Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
-        <v>ObsPartnerTraceResult.Consent</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="B150" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="C150" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150" t="s">
+      <c r="E150" s="6">
+        <v>0</v>
+      </c>
+      <c r="F150" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G150" s="6" t="s">
         <v>860</v>
       </c>
-      <c r="H150">
-        <v>1</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="J150" s="1" t="s">
+      <c r="H150" s="6">
+        <v>1</v>
+      </c>
+      <c r="I150" s="6">
+        <v>0</v>
+      </c>
+      <c r="J150" s="5" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" s="6" t="s">
         <v>843</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="6" t="s">
         <v>862</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="6">
         <v>348</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G151" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="H151">
-        <v>1</v>
-      </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-      <c r="J151" s="1" t="s">
+      <c r="H151" s="6">
+        <v>1</v>
+      </c>
+      <c r="I151" s="6">
+        <v>0</v>
+      </c>
+      <c r="J151" s="5" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152" s="6" t="s">
         <v>864</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="6" t="s">
         <v>862</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="6">
         <v>349</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G152" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="H152">
-        <v>1</v>
-      </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
-      <c r="J152" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="H152" s="6">
+        <v>1</v>
+      </c>
+      <c r="I152" s="6">
+        <v>0</v>
+      </c>
+      <c r="J152" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
         <v>865</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="9" t="s">
         <v>863</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="9">
         <v>347</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G153" s="9" t="s">
         <v>858</v>
       </c>
-      <c r="H153">
-        <v>1</v>
-      </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
-      <c r="J153" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="H153" s="9">
+        <v>1</v>
+      </c>
+      <c r="I153" s="9">
+        <v>0</v>
+      </c>
+      <c r="J153" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
         <v>866</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="9" t="s">
         <v>863</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="9">
         <v>346</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G154" s="9" t="s">
         <v>858</v>
       </c>
-      <c r="H154">
-        <v>1</v>
-      </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-      <c r="J154" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H154" s="9">
+        <v>1</v>
+      </c>
+      <c r="I154" s="9">
+        <v>0</v>
+      </c>
+      <c r="J154" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>867</v>
       </c>
@@ -15737,19 +15840,19 @@
         <v>3618c426-005f-11e8-aa69-0ed5f89f718b.</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="J156" s="1"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="J157" s="1"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="J158" s="1"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="J159" s="1"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>856</v>
       </c>
@@ -15762,6 +15865,21 @@
         <v>ObsFamilyTraceResult.Outcome</v>
       </c>
     </row>
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>856</v>
+      </c>
+      <c r="B161" t="s">
+        <v>267</v>
+      </c>
+      <c r="L161" t="str">
+        <f>Table8[[#This Row],[Id]]&amp;"."&amp;Table8[[#This Row],[Ref]]</f>
+        <v>ObsFamilyTraceResult.Consent</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
